--- a/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>913</v>
       </c>
       <c r="G4" t="n">
-        <v>9117.442226879701</v>
+        <v>9117.377889493921</v>
       </c>
       <c r="H4" t="n">
         <v>155312</v>
@@ -817,7 +817,7 @@
         <v>913</v>
       </c>
       <c r="G5" t="n">
-        <v>9117.442226879701</v>
+        <v>9117.377889493921</v>
       </c>
       <c r="H5" t="n">
         <v>155312</v>
@@ -902,7 +902,7 @@
         <v>913</v>
       </c>
       <c r="G6" t="n">
-        <v>9117.442226879701</v>
+        <v>9117.377889493921</v>
       </c>
       <c r="H6" t="n">
         <v>155312</v>
@@ -987,7 +987,7 @@
         <v>913</v>
       </c>
       <c r="G7" t="n">
-        <v>9117.442226879701</v>
+        <v>9117.377889493921</v>
       </c>
       <c r="H7" t="n">
         <v>155312</v>
@@ -1072,7 +1072,7 @@
         <v>0.58591</v>
       </c>
       <c r="G8" t="n">
-        <v>2.13017734027493</v>
+        <v>2.13015787156702</v>
       </c>
       <c r="H8" t="n">
         <v>14.2116357496488</v>
@@ -1153,7 +1153,7 @@
         <v>0.58591</v>
       </c>
       <c r="G9" t="n">
-        <v>2.13017734027493</v>
+        <v>2.13015787156702</v>
       </c>
       <c r="H9" t="n">
         <v>14.2116357496488</v>
@@ -1234,7 +1234,7 @@
         <v>0.2397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.477650023066317</v>
+        <v>0.477676758834549</v>
       </c>
       <c r="H10" t="n">
         <v>2.96</v>
@@ -1315,7 +1315,7 @@
         <v>0.2397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.477650023066317</v>
+        <v>0.477676758834549</v>
       </c>
       <c r="H11" t="n">
         <v>2.96</v>
@@ -1389,16 +1389,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.045</v>
+        <v>2.0448</v>
       </c>
       <c r="G12" t="n">
-        <v>4.99121818181818</v>
+        <v>4.99122545454545</v>
       </c>
       <c r="H12" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I12" t="n">
-        <v>23.073</v>
+        <v>23.07283</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1406,10 +1406,10 @@
         <v>1.661</v>
       </c>
       <c r="M12" t="n">
-        <v>10.3498</v>
+        <v>10.34987</v>
       </c>
       <c r="N12" t="n">
-        <v>17.5419</v>
+        <v>17.54201</v>
       </c>
       <c r="O12" t="n">
         <v>1805181.656</v>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.045</v>
+        <v>2.0448</v>
       </c>
       <c r="G13" t="n">
-        <v>4.99121818181818</v>
+        <v>4.99122545454545</v>
       </c>
       <c r="H13" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I13" t="n">
-        <v>23.073</v>
+        <v>23.07283</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1483,10 +1483,10 @@
         <v>1.661</v>
       </c>
       <c r="M13" t="n">
-        <v>10.3498</v>
+        <v>10.34987</v>
       </c>
       <c r="N13" t="n">
-        <v>17.5419</v>
+        <v>17.54201</v>
       </c>
       <c r="O13" t="n">
         <v>1805181.656</v>
@@ -2020,7 +2020,7 @@
         <v>1100</v>
       </c>
       <c r="G20" t="n">
-        <v>5232.15131778879</v>
+        <v>5232.08698040301</v>
       </c>
       <c r="H20" t="n">
         <v>120330</v>
@@ -2105,7 +2105,7 @@
         <v>1100</v>
       </c>
       <c r="G21" t="n">
-        <v>5232.15131778879</v>
+        <v>5232.08698040301</v>
       </c>
       <c r="H21" t="n">
         <v>120330</v>
@@ -2190,7 +2190,7 @@
         <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>5232.15131778879</v>
+        <v>5232.08698040301</v>
       </c>
       <c r="H22" t="n">
         <v>120330</v>
@@ -2275,7 +2275,7 @@
         <v>1100</v>
       </c>
       <c r="G23" t="n">
-        <v>5232.15131778879</v>
+        <v>5232.08698040301</v>
       </c>
       <c r="H23" t="n">
         <v>120330</v>
@@ -2360,7 +2360,7 @@
         <v>1.47196</v>
       </c>
       <c r="G24" t="n">
-        <v>3.09643607575218</v>
+        <v>3.09641660704427</v>
       </c>
       <c r="H24" t="n">
         <v>14.2116357496488</v>
@@ -2441,7 +2441,7 @@
         <v>1.47196</v>
       </c>
       <c r="G25" t="n">
-        <v>3.09643607575218</v>
+        <v>3.09641660704427</v>
       </c>
       <c r="H25" t="n">
         <v>14.2116357496488</v>
@@ -2522,7 +2522,7 @@
         <v>0.217</v>
       </c>
       <c r="G26" t="n">
-        <v>0.383742746145168</v>
+        <v>0.383764620864631</v>
       </c>
       <c r="H26" t="n">
         <v>2.96</v>
@@ -2603,7 +2603,7 @@
         <v>0.217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.383742746145168</v>
+        <v>0.383764620864631</v>
       </c>
       <c r="H27" t="n">
         <v>2.96</v>
@@ -2680,13 +2680,13 @@
         <v>3.46</v>
       </c>
       <c r="G28" t="n">
-        <v>7.04018181818182</v>
+        <v>7.04017454545455</v>
       </c>
       <c r="H28" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I28" t="n">
-        <v>23.26975</v>
+        <v>23.2695</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2694,10 +2694,10 @@
         <v>6.3985</v>
       </c>
       <c r="M28" t="n">
-        <v>15.8089</v>
+        <v>15.80875</v>
       </c>
       <c r="N28" t="n">
-        <v>22.4617</v>
+        <v>22.46187</v>
       </c>
       <c r="O28" t="n">
         <v>1805181.656</v>
@@ -2757,13 +2757,13 @@
         <v>3.46</v>
       </c>
       <c r="G29" t="n">
-        <v>7.04018181818182</v>
+        <v>7.04017454545455</v>
       </c>
       <c r="H29" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I29" t="n">
-        <v>23.26975</v>
+        <v>23.2695</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2771,10 +2771,10 @@
         <v>6.3985</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8089</v>
+        <v>15.80875</v>
       </c>
       <c r="N29" t="n">
-        <v>22.4617</v>
+        <v>22.46187</v>
       </c>
       <c r="O29" t="n">
         <v>1805181.656</v>
@@ -3308,7 +3308,7 @@
         <v>1048</v>
       </c>
       <c r="G36" t="n">
-        <v>4831.00575854256</v>
+        <v>4830.94257003867</v>
       </c>
       <c r="H36" t="n">
         <v>120330</v>
@@ -3393,7 +3393,7 @@
         <v>1048</v>
       </c>
       <c r="G37" t="n">
-        <v>4831.00575854256</v>
+        <v>4830.94257003867</v>
       </c>
       <c r="H37" t="n">
         <v>120330</v>
@@ -3478,7 +3478,7 @@
         <v>1048</v>
       </c>
       <c r="G38" t="n">
-        <v>4831.00575854256</v>
+        <v>4830.94257003867</v>
       </c>
       <c r="H38" t="n">
         <v>120330</v>
@@ -3563,7 +3563,7 @@
         <v>1048</v>
       </c>
       <c r="G39" t="n">
-        <v>4831.00575854256</v>
+        <v>4830.94257003867</v>
       </c>
       <c r="H39" t="n">
         <v>120330</v>
@@ -3810,7 +3810,7 @@
         <v>0.2379</v>
       </c>
       <c r="G42" t="n">
-        <v>0.465131760541008</v>
+        <v>0.46512735331533</v>
       </c>
       <c r="H42" t="n">
         <v>2.96</v>
@@ -3891,7 +3891,7 @@
         <v>0.2379</v>
       </c>
       <c r="G43" t="n">
-        <v>0.465131760541008</v>
+        <v>0.46512735331533</v>
       </c>
       <c r="H43" t="n">
         <v>2.96</v>
@@ -3968,24 +3968,24 @@
         <v>7.286</v>
       </c>
       <c r="G44" t="n">
-        <v>9.388482142857139</v>
+        <v>9.388478571428569</v>
       </c>
       <c r="H44" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I44" t="n">
-        <v>23.2631</v>
+        <v>23.26286</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>13.819</v>
+        <v>13.8189</v>
       </c>
       <c r="M44" t="n">
         <v>16.71468</v>
       </c>
       <c r="N44" t="n">
-        <v>22.39874</v>
+        <v>22.39893</v>
       </c>
       <c r="O44" t="n">
         <v>1805181.656</v>
@@ -4045,24 +4045,24 @@
         <v>7.286</v>
       </c>
       <c r="G45" t="n">
-        <v>9.388482142857139</v>
+        <v>9.388478571428569</v>
       </c>
       <c r="H45" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I45" t="n">
-        <v>23.2631</v>
+        <v>23.26286</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>13.819</v>
+        <v>13.8189</v>
       </c>
       <c r="M45" t="n">
         <v>16.71468</v>
       </c>
       <c r="N45" t="n">
-        <v>22.39874</v>
+        <v>22.39893</v>
       </c>
       <c r="O45" t="n">
         <v>1805181.656</v>
@@ -4596,7 +4596,7 @@
         <v>1127</v>
       </c>
       <c r="G52" t="n">
-        <v>7763.18909092812</v>
+        <v>7238.14805810142</v>
       </c>
       <c r="H52" t="n">
         <v>120330</v>
@@ -4681,7 +4681,7 @@
         <v>1127</v>
       </c>
       <c r="G53" t="n">
-        <v>7763.18909092812</v>
+        <v>7238.14805810142</v>
       </c>
       <c r="H53" t="n">
         <v>120330</v>
@@ -4766,7 +4766,7 @@
         <v>1127</v>
       </c>
       <c r="G54" t="n">
-        <v>7763.18909092812</v>
+        <v>7238.14805810142</v>
       </c>
       <c r="H54" t="n">
         <v>120330</v>
@@ -4851,7 +4851,7 @@
         <v>1127</v>
       </c>
       <c r="G55" t="n">
-        <v>7763.18909092812</v>
+        <v>7238.14805810142</v>
       </c>
       <c r="H55" t="n">
         <v>120330</v>
@@ -5098,7 +5098,7 @@
         <v>0.2361</v>
       </c>
       <c r="G58" t="n">
-        <v>0.384585589303447</v>
+        <v>0.384581259397517</v>
       </c>
       <c r="H58" t="n">
         <v>2.1453</v>
@@ -5179,7 +5179,7 @@
         <v>0.2361</v>
       </c>
       <c r="G59" t="n">
-        <v>0.384585589303447</v>
+        <v>0.384581259397517</v>
       </c>
       <c r="H59" t="n">
         <v>2.1453</v>
@@ -5256,24 +5256,24 @@
         <v>11.04</v>
       </c>
       <c r="G60" t="n">
-        <v>11.0468245614035</v>
+        <v>11.0468210526316</v>
       </c>
       <c r="H60" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I60" t="n">
-        <v>24.2742</v>
+        <v>24.27426</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>14.922</v>
+        <v>14.92165</v>
       </c>
       <c r="M60" t="n">
-        <v>21.41148</v>
+        <v>21.4114</v>
       </c>
       <c r="N60" t="n">
-        <v>23.29502</v>
+        <v>23.29473</v>
       </c>
       <c r="O60" t="n">
         <v>1805181.656</v>
@@ -5333,24 +5333,24 @@
         <v>11.04</v>
       </c>
       <c r="G61" t="n">
-        <v>11.0468245614035</v>
+        <v>11.0468210526316</v>
       </c>
       <c r="H61" t="n">
-        <v>26.119</v>
+        <v>26.1187</v>
       </c>
       <c r="I61" t="n">
-        <v>24.2742</v>
+        <v>24.27426</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>14.922</v>
+        <v>14.92165</v>
       </c>
       <c r="M61" t="n">
-        <v>21.41148</v>
+        <v>21.4114</v>
       </c>
       <c r="N61" t="n">
-        <v>23.29502</v>
+        <v>23.29473</v>
       </c>
       <c r="O61" t="n">
         <v>1805181.656</v>
@@ -5884,10 +5884,10 @@
         <v>1422</v>
       </c>
       <c r="G68" t="n">
-        <v>4940.46296971505</v>
+        <v>4441.67398852969</v>
       </c>
       <c r="H68" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I68" t="n">
         <v>12500</v>
@@ -5969,10 +5969,10 @@
         <v>1422</v>
       </c>
       <c r="G69" t="n">
-        <v>4940.46296971505</v>
+        <v>4441.67398852969</v>
       </c>
       <c r="H69" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I69" t="n">
         <v>12500</v>
@@ -6054,10 +6054,10 @@
         <v>1422</v>
       </c>
       <c r="G70" t="n">
-        <v>4940.46296971505</v>
+        <v>4441.67398852969</v>
       </c>
       <c r="H70" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I70" t="n">
         <v>12500</v>
@@ -6139,10 +6139,10 @@
         <v>1422</v>
       </c>
       <c r="G71" t="n">
-        <v>4940.46296971505</v>
+        <v>4441.67398852969</v>
       </c>
       <c r="H71" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I71" t="n">
         <v>12500</v>
@@ -6386,7 +6386,7 @@
         <v>0.23155</v>
       </c>
       <c r="G74" t="n">
-        <v>0.385887976504941</v>
+        <v>0.385883863094308</v>
       </c>
       <c r="H74" t="n">
         <v>2.1453</v>
@@ -6467,7 +6467,7 @@
         <v>0.23155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.385887976504941</v>
+        <v>0.385883863094308</v>
       </c>
       <c r="H75" t="n">
         <v>2.1453</v>
@@ -6541,27 +6541,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>12.0025</v>
+        <v>12.00235</v>
       </c>
       <c r="G76" t="n">
-        <v>11.6085</v>
+        <v>11.608495</v>
       </c>
       <c r="H76" t="n">
         <v>26.12</v>
       </c>
       <c r="I76" t="n">
-        <v>24.354</v>
+        <v>24.35405</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>15.011</v>
+        <v>15.01085</v>
       </c>
       <c r="M76" t="n">
-        <v>21.5266</v>
+        <v>21.52653</v>
       </c>
       <c r="N76" t="n">
-        <v>23.9519</v>
+        <v>23.95181</v>
       </c>
       <c r="O76" t="n">
         <v>1805181.656</v>
@@ -6618,27 +6618,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12.0025</v>
+        <v>12.00235</v>
       </c>
       <c r="G77" t="n">
-        <v>11.6085</v>
+        <v>11.608495</v>
       </c>
       <c r="H77" t="n">
         <v>26.12</v>
       </c>
       <c r="I77" t="n">
-        <v>24.354</v>
+        <v>24.35405</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>15.011</v>
+        <v>15.01085</v>
       </c>
       <c r="M77" t="n">
-        <v>21.5266</v>
+        <v>21.52653</v>
       </c>
       <c r="N77" t="n">
-        <v>23.9519</v>
+        <v>23.95181</v>
       </c>
       <c r="O77" t="n">
         <v>1805181.656</v>
@@ -7172,13 +7172,13 @@
         <v>1770.5</v>
       </c>
       <c r="G84" t="n">
-        <v>5903.15611452736</v>
+        <v>5641.44247552377</v>
       </c>
       <c r="H84" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I84" t="n">
-        <v>16500</v>
+        <v>21947.55461</v>
       </c>
       <c r="J84" t="n">
         <v>78.3333333333333</v>
@@ -7193,7 +7193,7 @@
         <v>6718.4</v>
       </c>
       <c r="N84" t="n">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="O84" t="n">
         <v>1805181.656</v>
@@ -7257,13 +7257,13 @@
         <v>1770.5</v>
       </c>
       <c r="G85" t="n">
-        <v>5903.15611452736</v>
+        <v>5641.44247552377</v>
       </c>
       <c r="H85" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I85" t="n">
-        <v>16500</v>
+        <v>21947.55461</v>
       </c>
       <c r="J85" t="n">
         <v>78.3333333333333</v>
@@ -7278,7 +7278,7 @@
         <v>6718.4</v>
       </c>
       <c r="N85" t="n">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="O85" t="n">
         <v>1805181.656</v>
@@ -7342,13 +7342,13 @@
         <v>1770.5</v>
       </c>
       <c r="G86" t="n">
-        <v>5903.15611452736</v>
+        <v>5641.44247552377</v>
       </c>
       <c r="H86" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I86" t="n">
-        <v>16500</v>
+        <v>21947.55461</v>
       </c>
       <c r="J86" t="n">
         <v>78.3333333333333</v>
@@ -7363,7 +7363,7 @@
         <v>6718.4</v>
       </c>
       <c r="N86" t="n">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="O86" t="n">
         <v>1805181.656</v>
@@ -7427,13 +7427,13 @@
         <v>1770.5</v>
       </c>
       <c r="G87" t="n">
-        <v>5903.15611452736</v>
+        <v>5641.44247552377</v>
       </c>
       <c r="H87" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I87" t="n">
-        <v>16500</v>
+        <v>21947.55461</v>
       </c>
       <c r="J87" t="n">
         <v>78.3333333333333</v>
@@ -7448,7 +7448,7 @@
         <v>6718.4</v>
       </c>
       <c r="N87" t="n">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="O87" t="n">
         <v>1805181.656</v>
@@ -7674,7 +7674,7 @@
         <v>0.2017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.347627976504941</v>
+        <v>0.347623863094308</v>
       </c>
       <c r="H90" t="n">
         <v>2.1453</v>
@@ -7755,7 +7755,7 @@
         <v>0.2017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.347627976504941</v>
+        <v>0.347623863094308</v>
       </c>
       <c r="H91" t="n">
         <v>2.1453</v>
@@ -7832,7 +7832,7 @@
         <v>11.5</v>
       </c>
       <c r="G92" t="n">
-        <v>11.5781333333333</v>
+        <v>11.57813</v>
       </c>
       <c r="H92" t="n">
         <v>26.12</v>
@@ -7843,13 +7843,13 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>15.521</v>
+        <v>15.52095</v>
       </c>
       <c r="M92" t="n">
-        <v>21.1524</v>
+        <v>21.15237</v>
       </c>
       <c r="N92" t="n">
-        <v>23.912</v>
+        <v>23.91197</v>
       </c>
       <c r="O92" t="n">
         <v>1805181.656</v>
@@ -7909,7 +7909,7 @@
         <v>11.5</v>
       </c>
       <c r="G93" t="n">
-        <v>11.5781333333333</v>
+        <v>11.57813</v>
       </c>
       <c r="H93" t="n">
         <v>26.12</v>
@@ -7920,13 +7920,13 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>15.521</v>
+        <v>15.52095</v>
       </c>
       <c r="M93" t="n">
-        <v>21.1524</v>
+        <v>21.15237</v>
       </c>
       <c r="N93" t="n">
-        <v>23.912</v>
+        <v>23.91197</v>
       </c>
       <c r="O93" t="n">
         <v>1805181.656</v>
@@ -8460,13 +8460,13 @@
         <v>2245</v>
       </c>
       <c r="G100" t="n">
-        <v>7097.44974432169</v>
+        <v>7785.36130343936</v>
       </c>
       <c r="H100" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I100" t="n">
-        <v>29114.2467</v>
+        <v>44045.56484</v>
       </c>
       <c r="J100" t="n">
         <v>81.6666666666667</v>
@@ -8478,10 +8478,10 @@
         <v>860</v>
       </c>
       <c r="M100" t="n">
-        <v>9889.58706</v>
+        <v>10230</v>
       </c>
       <c r="N100" t="n">
-        <v>17500</v>
+        <v>33368.53277</v>
       </c>
       <c r="O100" t="n">
         <v>1805181.656</v>
@@ -8545,13 +8545,13 @@
         <v>2245</v>
       </c>
       <c r="G101" t="n">
-        <v>7097.44974432169</v>
+        <v>7785.36130343936</v>
       </c>
       <c r="H101" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I101" t="n">
-        <v>29114.2467</v>
+        <v>44045.56484</v>
       </c>
       <c r="J101" t="n">
         <v>81.6666666666667</v>
@@ -8563,10 +8563,10 @@
         <v>860</v>
       </c>
       <c r="M101" t="n">
-        <v>9889.58706</v>
+        <v>10230</v>
       </c>
       <c r="N101" t="n">
-        <v>17500</v>
+        <v>33368.53277</v>
       </c>
       <c r="O101" t="n">
         <v>1805181.656</v>
@@ -8630,13 +8630,13 @@
         <v>2245</v>
       </c>
       <c r="G102" t="n">
-        <v>7097.44974432169</v>
+        <v>7785.36130343936</v>
       </c>
       <c r="H102" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I102" t="n">
-        <v>29114.2467</v>
+        <v>44045.56484</v>
       </c>
       <c r="J102" t="n">
         <v>81.6666666666667</v>
@@ -8648,10 +8648,10 @@
         <v>860</v>
       </c>
       <c r="M102" t="n">
-        <v>9889.58706</v>
+        <v>10230</v>
       </c>
       <c r="N102" t="n">
-        <v>17500</v>
+        <v>33368.53277</v>
       </c>
       <c r="O102" t="n">
         <v>1805181.656</v>
@@ -8715,13 +8715,13 @@
         <v>2245</v>
       </c>
       <c r="G103" t="n">
-        <v>7097.44974432169</v>
+        <v>7785.36130343936</v>
       </c>
       <c r="H103" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I103" t="n">
-        <v>29114.2467</v>
+        <v>44045.56484</v>
       </c>
       <c r="J103" t="n">
         <v>81.6666666666667</v>
@@ -8733,10 +8733,10 @@
         <v>860</v>
       </c>
       <c r="M103" t="n">
-        <v>9889.58706</v>
+        <v>10230</v>
       </c>
       <c r="N103" t="n">
-        <v>17500</v>
+        <v>33368.53277</v>
       </c>
       <c r="O103" t="n">
         <v>1805181.656</v>
@@ -8962,7 +8962,7 @@
         <v>0.2055</v>
       </c>
       <c r="G106" t="n">
-        <v>0.372898832604192</v>
+        <v>0.372889655108362</v>
       </c>
       <c r="H106" t="n">
         <v>2.1453</v>
@@ -9043,7 +9043,7 @@
         <v>0.2055</v>
       </c>
       <c r="G107" t="n">
-        <v>0.372898832604192</v>
+        <v>0.372889655108362</v>
       </c>
       <c r="H107" t="n">
         <v>2.1453</v>
@@ -9120,7 +9120,7 @@
         <v>11.5</v>
       </c>
       <c r="G108" t="n">
-        <v>12.5766833333333</v>
+        <v>12.5766933333333</v>
       </c>
       <c r="H108" t="n">
         <v>38.74</v>
@@ -9197,7 +9197,7 @@
         <v>11.5</v>
       </c>
       <c r="G109" t="n">
-        <v>12.5766833333333</v>
+        <v>12.5766933333333</v>
       </c>
       <c r="H109" t="n">
         <v>38.74</v>
@@ -9748,13 +9748,13 @@
         <v>2700</v>
       </c>
       <c r="G116" t="n">
-        <v>7500.06990630353</v>
+        <v>8224.18733695371</v>
       </c>
       <c r="H116" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I116" t="n">
-        <v>31479.97269</v>
+        <v>44437.91734</v>
       </c>
       <c r="J116" t="n">
         <v>87.719298245614</v>
@@ -9766,10 +9766,10 @@
         <v>1200</v>
       </c>
       <c r="M116" t="n">
-        <v>9849.95075</v>
+        <v>9862</v>
       </c>
       <c r="N116" t="n">
-        <v>18700</v>
+        <v>36273.70655</v>
       </c>
       <c r="O116" t="n">
         <v>1805181.656</v>
@@ -9833,13 +9833,13 @@
         <v>2700</v>
       </c>
       <c r="G117" t="n">
-        <v>7500.06990630353</v>
+        <v>8224.18733695371</v>
       </c>
       <c r="H117" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I117" t="n">
-        <v>31479.97269</v>
+        <v>44437.91734</v>
       </c>
       <c r="J117" t="n">
         <v>87.719298245614</v>
@@ -9851,10 +9851,10 @@
         <v>1200</v>
       </c>
       <c r="M117" t="n">
-        <v>9849.95075</v>
+        <v>9862</v>
       </c>
       <c r="N117" t="n">
-        <v>18700</v>
+        <v>36273.70655</v>
       </c>
       <c r="O117" t="n">
         <v>1805181.656</v>
@@ -9918,13 +9918,13 @@
         <v>2700</v>
       </c>
       <c r="G118" t="n">
-        <v>7500.06990630353</v>
+        <v>8224.18733695371</v>
       </c>
       <c r="H118" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I118" t="n">
-        <v>31479.97269</v>
+        <v>44437.91734</v>
       </c>
       <c r="J118" t="n">
         <v>87.719298245614</v>
@@ -9936,10 +9936,10 @@
         <v>1200</v>
       </c>
       <c r="M118" t="n">
-        <v>9849.95075</v>
+        <v>9862</v>
       </c>
       <c r="N118" t="n">
-        <v>18700</v>
+        <v>36273.70655</v>
       </c>
       <c r="O118" t="n">
         <v>1805181.656</v>
@@ -10003,13 +10003,13 @@
         <v>2700</v>
       </c>
       <c r="G119" t="n">
-        <v>7500.06990630353</v>
+        <v>8224.18733695371</v>
       </c>
       <c r="H119" t="n">
-        <v>108260.778182903</v>
+        <v>78333.4393117812</v>
       </c>
       <c r="I119" t="n">
-        <v>31479.97269</v>
+        <v>44437.91734</v>
       </c>
       <c r="J119" t="n">
         <v>87.719298245614</v>
@@ -10021,10 +10021,10 @@
         <v>1200</v>
       </c>
       <c r="M119" t="n">
-        <v>9849.95075</v>
+        <v>9862</v>
       </c>
       <c r="N119" t="n">
-        <v>18700</v>
+        <v>36273.70655</v>
       </c>
       <c r="O119" t="n">
         <v>1805181.656</v>
@@ -10250,7 +10250,7 @@
         <v>0.213</v>
       </c>
       <c r="G122" t="n">
-        <v>0.452471076595703</v>
+        <v>0.452465745979706</v>
       </c>
       <c r="H122" t="n">
         <v>3.89</v>
@@ -10331,7 +10331,7 @@
         <v>0.213</v>
       </c>
       <c r="G123" t="n">
-        <v>0.452471076595703</v>
+        <v>0.452465745979706</v>
       </c>
       <c r="H123" t="n">
         <v>3.89</v>
@@ -11036,13 +11036,13 @@
         <v>2400</v>
       </c>
       <c r="G132" t="n">
-        <v>4688.18900882219</v>
+        <v>6006.74516471445</v>
       </c>
       <c r="H132" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I132" t="n">
-        <v>18000</v>
+        <v>34579.02184</v>
       </c>
       <c r="J132" t="n">
         <v>85.1851851851852</v>
@@ -11057,7 +11057,7 @@
         <v>9700</v>
       </c>
       <c r="N132" t="n">
-        <v>11540</v>
+        <v>20061.11966</v>
       </c>
       <c r="O132" t="n">
         <v>1805181.656</v>
@@ -11121,13 +11121,13 @@
         <v>2400</v>
       </c>
       <c r="G133" t="n">
-        <v>4688.18900882219</v>
+        <v>6006.74516471445</v>
       </c>
       <c r="H133" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I133" t="n">
-        <v>18000</v>
+        <v>34579.02184</v>
       </c>
       <c r="J133" t="n">
         <v>85.1851851851852</v>
@@ -11142,7 +11142,7 @@
         <v>9700</v>
       </c>
       <c r="N133" t="n">
-        <v>11540</v>
+        <v>20061.11966</v>
       </c>
       <c r="O133" t="n">
         <v>1805181.656</v>
@@ -11206,13 +11206,13 @@
         <v>2400</v>
       </c>
       <c r="G134" t="n">
-        <v>4688.18900882219</v>
+        <v>6006.74516471445</v>
       </c>
       <c r="H134" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I134" t="n">
-        <v>18000</v>
+        <v>34579.02184</v>
       </c>
       <c r="J134" t="n">
         <v>85.1851851851852</v>
@@ -11227,7 +11227,7 @@
         <v>9700</v>
       </c>
       <c r="N134" t="n">
-        <v>11540</v>
+        <v>20061.11966</v>
       </c>
       <c r="O134" t="n">
         <v>1805181.656</v>
@@ -11291,13 +11291,13 @@
         <v>2400</v>
       </c>
       <c r="G135" t="n">
-        <v>4688.18900882219</v>
+        <v>6006.74516471445</v>
       </c>
       <c r="H135" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I135" t="n">
-        <v>18000</v>
+        <v>34579.02184</v>
       </c>
       <c r="J135" t="n">
         <v>85.1851851851852</v>
@@ -11312,7 +11312,7 @@
         <v>9700</v>
       </c>
       <c r="N135" t="n">
-        <v>11540</v>
+        <v>20061.11966</v>
       </c>
       <c r="O135" t="n">
         <v>1805181.656</v>
@@ -11538,7 +11538,7 @@
         <v>0.205</v>
       </c>
       <c r="G138" t="n">
-        <v>0.436256506776946</v>
+        <v>0.436250880015615</v>
       </c>
       <c r="H138" t="n">
         <v>3.89</v>
@@ -11619,7 +11619,7 @@
         <v>0.205</v>
       </c>
       <c r="G139" t="n">
-        <v>0.436256506776946</v>
+        <v>0.436250880015615</v>
       </c>
       <c r="H139" t="n">
         <v>3.89</v>
@@ -12324,13 +12324,13 @@
         <v>2700</v>
       </c>
       <c r="G148" t="n">
-        <v>5062.00882850986</v>
+        <v>6319.91988678446</v>
       </c>
       <c r="H148" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I148" t="n">
-        <v>18966.16219</v>
+        <v>36394.75546</v>
       </c>
       <c r="J148" t="n">
         <v>82.35294117647059</v>
@@ -12345,7 +12345,7 @@
         <v>9700</v>
       </c>
       <c r="N148" t="n">
-        <v>15815.76239</v>
+        <v>21475.94587</v>
       </c>
       <c r="O148" t="n">
         <v>1805181.656</v>
@@ -12409,13 +12409,13 @@
         <v>2700</v>
       </c>
       <c r="G149" t="n">
-        <v>5062.00882850986</v>
+        <v>6319.91988678446</v>
       </c>
       <c r="H149" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I149" t="n">
-        <v>18966.16219</v>
+        <v>36394.75546</v>
       </c>
       <c r="J149" t="n">
         <v>82.35294117647059</v>
@@ -12430,7 +12430,7 @@
         <v>9700</v>
       </c>
       <c r="N149" t="n">
-        <v>15815.76239</v>
+        <v>21475.94587</v>
       </c>
       <c r="O149" t="n">
         <v>1805181.656</v>
@@ -12494,13 +12494,13 @@
         <v>2700</v>
       </c>
       <c r="G150" t="n">
-        <v>5062.00882850986</v>
+        <v>6319.91988678446</v>
       </c>
       <c r="H150" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I150" t="n">
-        <v>18966.16219</v>
+        <v>36394.75546</v>
       </c>
       <c r="J150" t="n">
         <v>82.35294117647059</v>
@@ -12515,7 +12515,7 @@
         <v>9700</v>
       </c>
       <c r="N150" t="n">
-        <v>15815.76239</v>
+        <v>21475.94587</v>
       </c>
       <c r="O150" t="n">
         <v>1805181.656</v>
@@ -12579,13 +12579,13 @@
         <v>2700</v>
       </c>
       <c r="G151" t="n">
-        <v>5062.00882850986</v>
+        <v>6319.91988678446</v>
       </c>
       <c r="H151" t="n">
-        <v>37000</v>
+        <v>45353.4065086535</v>
       </c>
       <c r="I151" t="n">
-        <v>18966.16219</v>
+        <v>36394.75546</v>
       </c>
       <c r="J151" t="n">
         <v>82.35294117647059</v>
@@ -12600,7 +12600,7 @@
         <v>9700</v>
       </c>
       <c r="N151" t="n">
-        <v>15815.76239</v>
+        <v>21475.94587</v>
       </c>
       <c r="O151" t="n">
         <v>1805181.656</v>
@@ -12826,7 +12826,7 @@
         <v>0.191</v>
       </c>
       <c r="G154" t="n">
-        <v>0.44580100717559</v>
+        <v>0.445795049428298</v>
       </c>
       <c r="H154" t="n">
         <v>3.89</v>
@@ -12907,7 +12907,7 @@
         <v>0.191</v>
       </c>
       <c r="G155" t="n">
-        <v>0.44580100717559</v>
+        <v>0.445795049428298</v>
       </c>
       <c r="H155" t="n">
         <v>3.89</v>
@@ -13420,6 +13420,1294 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.6854347826087</v>
+      </c>
+      <c r="H162" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M162" t="n">
+        <v>4.1056</v>
+      </c>
+      <c r="N162" t="n">
+        <v>4.9428</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.6854347826087</v>
+      </c>
+      <c r="H163" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.754</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M163" t="n">
+        <v>4.1056</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4.9428</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1593.5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5143.23489144265</v>
+      </c>
+      <c r="H164" t="n">
+        <v>45353.4065086535</v>
+      </c>
+      <c r="I164" t="n">
+        <v>38147.54463</v>
+      </c>
+      <c r="J164" t="n">
+        <v>73.9130434782609</v>
+      </c>
+      <c r="K164" t="n">
+        <v>86.95652173913039</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M164" t="n">
+        <v>6040</v>
+      </c>
+      <c r="N164" t="n">
+        <v>10991.23377</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1593.5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5143.23489144265</v>
+      </c>
+      <c r="H165" t="n">
+        <v>45353.4065086535</v>
+      </c>
+      <c r="I165" t="n">
+        <v>38147.54463</v>
+      </c>
+      <c r="J165" t="n">
+        <v>73.9130434782609</v>
+      </c>
+      <c r="K165" t="n">
+        <v>86.95652173913039</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M165" t="n">
+        <v>6040</v>
+      </c>
+      <c r="N165" t="n">
+        <v>10991.23377</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1593.5</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5143.23489144265</v>
+      </c>
+      <c r="H166" t="n">
+        <v>45353.4065086535</v>
+      </c>
+      <c r="I166" t="n">
+        <v>38147.54463</v>
+      </c>
+      <c r="J166" t="n">
+        <v>73.9130434782609</v>
+      </c>
+      <c r="K166" t="n">
+        <v>86.95652173913039</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M166" t="n">
+        <v>6040</v>
+      </c>
+      <c r="N166" t="n">
+        <v>10991.23377</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1593.5</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5143.23489144265</v>
+      </c>
+      <c r="H167" t="n">
+        <v>45353.4065086535</v>
+      </c>
+      <c r="I167" t="n">
+        <v>38147.54463</v>
+      </c>
+      <c r="J167" t="n">
+        <v>73.9130434782609</v>
+      </c>
+      <c r="K167" t="n">
+        <v>86.95652173913039</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M167" t="n">
+        <v>6040</v>
+      </c>
+      <c r="N167" t="n">
+        <v>10991.23377</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>2.30782</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.06574087547498</v>
+      </c>
+      <c r="H168" t="n">
+        <v>29.7974519337602</v>
+      </c>
+      <c r="I168" t="n">
+        <v>23.53863</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>3.64094</v>
+      </c>
+      <c r="M168" t="n">
+        <v>10.42493</v>
+      </c>
+      <c r="N168" t="n">
+        <v>16.89208</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>2.30782</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.06574087547498</v>
+      </c>
+      <c r="H169" t="n">
+        <v>29.7974519337602</v>
+      </c>
+      <c r="I169" t="n">
+        <v>23.53863</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>3.64094</v>
+      </c>
+      <c r="M169" t="n">
+        <v>10.42493</v>
+      </c>
+      <c r="N169" t="n">
+        <v>16.89208</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2185</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.491429691624456</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.74868</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2185</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.491429691624456</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.74868</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>6.0285</v>
+      </c>
+      <c r="G172" t="n">
+        <v>9.149826086956519</v>
+      </c>
+      <c r="H172" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="I172" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="M172" t="n">
+        <v>13.8732</v>
+      </c>
+      <c r="N172" t="n">
+        <v>27.7974</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>6.0285</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9.149826086956519</v>
+      </c>
+      <c r="H173" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="I173" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="M173" t="n">
+        <v>13.8732</v>
+      </c>
+      <c r="N173" t="n">
+        <v>27.7974</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>13.1826086956522</v>
+      </c>
+      <c r="H174" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="M174" t="n">
+        <v>20.304</v>
+      </c>
+      <c r="N174" t="n">
+        <v>38.594</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>13.1826086956522</v>
+      </c>
+      <c r="H175" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="M175" t="n">
+        <v>20.304</v>
+      </c>
+      <c r="N175" t="n">
+        <v>38.594</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.80897826086957</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9.125999999999999</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="M176" t="n">
+        <v>5.4356</v>
+      </c>
+      <c r="N176" t="n">
+        <v>8.0258</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Piakatutu at d/s Sanson STP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.80897826086957</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9.125999999999999</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="M177" t="n">
+        <v>5.4356</v>
+      </c>
+      <c r="N177" t="n">
+        <v>8.0258</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1805181.656</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -4596,7 +4596,7 @@
         <v>1127</v>
       </c>
       <c r="G52" t="n">
-        <v>7238.14805810142</v>
+        <v>7693.81526739861</v>
       </c>
       <c r="H52" t="n">
         <v>120330</v>
@@ -4681,7 +4681,7 @@
         <v>1127</v>
       </c>
       <c r="G53" t="n">
-        <v>7238.14805810142</v>
+        <v>7693.81526739861</v>
       </c>
       <c r="H53" t="n">
         <v>120330</v>
@@ -4766,7 +4766,7 @@
         <v>1127</v>
       </c>
       <c r="G54" t="n">
-        <v>7238.14805810142</v>
+        <v>7693.81526739861</v>
       </c>
       <c r="H54" t="n">
         <v>120330</v>
@@ -4851,7 +4851,7 @@
         <v>1127</v>
       </c>
       <c r="G55" t="n">
-        <v>7238.14805810142</v>
+        <v>7693.81526739861</v>
       </c>
       <c r="H55" t="n">
         <v>120330</v>
@@ -5884,10 +5884,10 @@
         <v>1422</v>
       </c>
       <c r="G68" t="n">
-        <v>4441.67398852969</v>
+        <v>4874.55783736201</v>
       </c>
       <c r="H68" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I68" t="n">
         <v>12500</v>
@@ -5969,10 +5969,10 @@
         <v>1422</v>
       </c>
       <c r="G69" t="n">
-        <v>4441.67398852969</v>
+        <v>4874.55783736201</v>
       </c>
       <c r="H69" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I69" t="n">
         <v>12500</v>
@@ -6054,10 +6054,10 @@
         <v>1422</v>
       </c>
       <c r="G70" t="n">
-        <v>4441.67398852969</v>
+        <v>4874.55783736201</v>
       </c>
       <c r="H70" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I70" t="n">
         <v>12500</v>
@@ -6139,10 +6139,10 @@
         <v>1422</v>
       </c>
       <c r="G71" t="n">
-        <v>4441.67398852969</v>
+        <v>4874.55783736201</v>
       </c>
       <c r="H71" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I71" t="n">
         <v>12500</v>
@@ -7172,13 +7172,13 @@
         <v>1770.5</v>
       </c>
       <c r="G84" t="n">
-        <v>5641.44247552377</v>
+        <v>6201.02057106012</v>
       </c>
       <c r="H84" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I84" t="n">
-        <v>21947.55461</v>
+        <v>25748.38201</v>
       </c>
       <c r="J84" t="n">
         <v>78.3333333333333</v>
@@ -7257,13 +7257,13 @@
         <v>1770.5</v>
       </c>
       <c r="G85" t="n">
-        <v>5641.44247552377</v>
+        <v>6201.02057106012</v>
       </c>
       <c r="H85" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I85" t="n">
-        <v>21947.55461</v>
+        <v>25748.38201</v>
       </c>
       <c r="J85" t="n">
         <v>78.3333333333333</v>
@@ -7342,13 +7342,13 @@
         <v>1770.5</v>
       </c>
       <c r="G86" t="n">
-        <v>5641.44247552377</v>
+        <v>6201.02057106012</v>
       </c>
       <c r="H86" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I86" t="n">
-        <v>21947.55461</v>
+        <v>25748.38201</v>
       </c>
       <c r="J86" t="n">
         <v>78.3333333333333</v>
@@ -7427,13 +7427,13 @@
         <v>1770.5</v>
       </c>
       <c r="G87" t="n">
-        <v>5641.44247552377</v>
+        <v>6201.02057106012</v>
       </c>
       <c r="H87" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I87" t="n">
-        <v>21947.55461</v>
+        <v>25748.38201</v>
       </c>
       <c r="J87" t="n">
         <v>78.3333333333333</v>
@@ -8460,13 +8460,13 @@
         <v>2245</v>
       </c>
       <c r="G100" t="n">
-        <v>7785.36130343936</v>
+        <v>7319.80483416293</v>
       </c>
       <c r="H100" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I100" t="n">
-        <v>44045.56484</v>
+        <v>34748.38201</v>
       </c>
       <c r="J100" t="n">
         <v>81.6666666666667</v>
@@ -8481,7 +8481,7 @@
         <v>10230</v>
       </c>
       <c r="N100" t="n">
-        <v>33368.53277</v>
+        <v>17950.14168</v>
       </c>
       <c r="O100" t="n">
         <v>1805181.656</v>
@@ -8545,13 +8545,13 @@
         <v>2245</v>
       </c>
       <c r="G101" t="n">
-        <v>7785.36130343936</v>
+        <v>7319.80483416293</v>
       </c>
       <c r="H101" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I101" t="n">
-        <v>44045.56484</v>
+        <v>34748.38201</v>
       </c>
       <c r="J101" t="n">
         <v>81.6666666666667</v>
@@ -8566,7 +8566,7 @@
         <v>10230</v>
       </c>
       <c r="N101" t="n">
-        <v>33368.53277</v>
+        <v>17950.14168</v>
       </c>
       <c r="O101" t="n">
         <v>1805181.656</v>
@@ -8630,13 +8630,13 @@
         <v>2245</v>
       </c>
       <c r="G102" t="n">
-        <v>7785.36130343936</v>
+        <v>7319.80483416293</v>
       </c>
       <c r="H102" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I102" t="n">
-        <v>44045.56484</v>
+        <v>34748.38201</v>
       </c>
       <c r="J102" t="n">
         <v>81.6666666666667</v>
@@ -8651,7 +8651,7 @@
         <v>10230</v>
       </c>
       <c r="N102" t="n">
-        <v>33368.53277</v>
+        <v>17950.14168</v>
       </c>
       <c r="O102" t="n">
         <v>1805181.656</v>
@@ -8715,13 +8715,13 @@
         <v>2245</v>
       </c>
       <c r="G103" t="n">
-        <v>7785.36130343936</v>
+        <v>7319.80483416293</v>
       </c>
       <c r="H103" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I103" t="n">
-        <v>44045.56484</v>
+        <v>34748.38201</v>
       </c>
       <c r="J103" t="n">
         <v>81.6666666666667</v>
@@ -8736,7 +8736,7 @@
         <v>10230</v>
       </c>
       <c r="N103" t="n">
-        <v>33368.53277</v>
+        <v>17950.14168</v>
       </c>
       <c r="O103" t="n">
         <v>1805181.656</v>
@@ -9748,13 +9748,13 @@
         <v>2700</v>
       </c>
       <c r="G116" t="n">
-        <v>8224.18733695371</v>
+        <v>7734.1278956101</v>
       </c>
       <c r="H116" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I116" t="n">
-        <v>44437.91734</v>
+        <v>35423.86741</v>
       </c>
       <c r="J116" t="n">
         <v>87.719298245614</v>
@@ -9769,7 +9769,7 @@
         <v>9862</v>
       </c>
       <c r="N116" t="n">
-        <v>36273.70655</v>
+        <v>18790.02834</v>
       </c>
       <c r="O116" t="n">
         <v>1805181.656</v>
@@ -9833,13 +9833,13 @@
         <v>2700</v>
       </c>
       <c r="G117" t="n">
-        <v>8224.18733695371</v>
+        <v>7734.1278956101</v>
       </c>
       <c r="H117" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I117" t="n">
-        <v>44437.91734</v>
+        <v>35423.86741</v>
       </c>
       <c r="J117" t="n">
         <v>87.719298245614</v>
@@ -9854,7 +9854,7 @@
         <v>9862</v>
       </c>
       <c r="N117" t="n">
-        <v>36273.70655</v>
+        <v>18790.02834</v>
       </c>
       <c r="O117" t="n">
         <v>1805181.656</v>
@@ -9918,13 +9918,13 @@
         <v>2700</v>
       </c>
       <c r="G118" t="n">
-        <v>8224.18733695371</v>
+        <v>7734.1278956101</v>
       </c>
       <c r="H118" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I118" t="n">
-        <v>44437.91734</v>
+        <v>35423.86741</v>
       </c>
       <c r="J118" t="n">
         <v>87.719298245614</v>
@@ -9939,7 +9939,7 @@
         <v>9862</v>
       </c>
       <c r="N118" t="n">
-        <v>36273.70655</v>
+        <v>18790.02834</v>
       </c>
       <c r="O118" t="n">
         <v>1805181.656</v>
@@ -10003,13 +10003,13 @@
         <v>2700</v>
       </c>
       <c r="G119" t="n">
-        <v>8224.18733695371</v>
+        <v>7734.1278956101</v>
       </c>
       <c r="H119" t="n">
-        <v>78333.4393117812</v>
+        <v>104306.47024172</v>
       </c>
       <c r="I119" t="n">
-        <v>44437.91734</v>
+        <v>35423.86741</v>
       </c>
       <c r="J119" t="n">
         <v>87.719298245614</v>
@@ -10024,7 +10024,7 @@
         <v>9862</v>
       </c>
       <c r="N119" t="n">
-        <v>36273.70655</v>
+        <v>18790.02834</v>
       </c>
       <c r="O119" t="n">
         <v>1805181.656</v>
@@ -11036,13 +11036,13 @@
         <v>2400</v>
       </c>
       <c r="G132" t="n">
-        <v>6006.74516471445</v>
+        <v>5008.47814459361</v>
       </c>
       <c r="H132" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I132" t="n">
-        <v>34579.02184</v>
+        <v>18300.09446</v>
       </c>
       <c r="J132" t="n">
         <v>85.1851851851852</v>
@@ -11057,7 +11057,7 @@
         <v>9700</v>
       </c>
       <c r="N132" t="n">
-        <v>20061.11966</v>
+        <v>14270.08501</v>
       </c>
       <c r="O132" t="n">
         <v>1805181.656</v>
@@ -11121,13 +11121,13 @@
         <v>2400</v>
       </c>
       <c r="G133" t="n">
-        <v>6006.74516471445</v>
+        <v>5008.47814459361</v>
       </c>
       <c r="H133" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I133" t="n">
-        <v>34579.02184</v>
+        <v>18300.09446</v>
       </c>
       <c r="J133" t="n">
         <v>85.1851851851852</v>
@@ -11142,7 +11142,7 @@
         <v>9700</v>
       </c>
       <c r="N133" t="n">
-        <v>20061.11966</v>
+        <v>14270.08501</v>
       </c>
       <c r="O133" t="n">
         <v>1805181.656</v>
@@ -11206,13 +11206,13 @@
         <v>2400</v>
       </c>
       <c r="G134" t="n">
-        <v>6006.74516471445</v>
+        <v>5008.47814459361</v>
       </c>
       <c r="H134" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I134" t="n">
-        <v>34579.02184</v>
+        <v>18300.09446</v>
       </c>
       <c r="J134" t="n">
         <v>85.1851851851852</v>
@@ -11227,7 +11227,7 @@
         <v>9700</v>
       </c>
       <c r="N134" t="n">
-        <v>20061.11966</v>
+        <v>14270.08501</v>
       </c>
       <c r="O134" t="n">
         <v>1805181.656</v>
@@ -11291,13 +11291,13 @@
         <v>2400</v>
       </c>
       <c r="G135" t="n">
-        <v>6006.74516471445</v>
+        <v>5008.47814459361</v>
       </c>
       <c r="H135" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I135" t="n">
-        <v>34579.02184</v>
+        <v>18300.09446</v>
       </c>
       <c r="J135" t="n">
         <v>85.1851851851852</v>
@@ -11312,7 +11312,7 @@
         <v>9700</v>
       </c>
       <c r="N135" t="n">
-        <v>20061.11966</v>
+        <v>14270.08501</v>
       </c>
       <c r="O135" t="n">
         <v>1805181.656</v>
@@ -12324,13 +12324,13 @@
         <v>2700</v>
       </c>
       <c r="G148" t="n">
-        <v>6319.91988678446</v>
+        <v>5279.13650044771</v>
       </c>
       <c r="H148" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I148" t="n">
-        <v>36394.75546</v>
+        <v>18825.02361</v>
       </c>
       <c r="J148" t="n">
         <v>82.35294117647059</v>
@@ -12345,7 +12345,7 @@
         <v>9700</v>
       </c>
       <c r="N148" t="n">
-        <v>21475.94587</v>
+        <v>14630.19836</v>
       </c>
       <c r="O148" t="n">
         <v>1805181.656</v>
@@ -12409,13 +12409,13 @@
         <v>2700</v>
       </c>
       <c r="G149" t="n">
-        <v>6319.91988678446</v>
+        <v>5279.13650044771</v>
       </c>
       <c r="H149" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I149" t="n">
-        <v>36394.75546</v>
+        <v>18825.02361</v>
       </c>
       <c r="J149" t="n">
         <v>82.35294117647059</v>
@@ -12430,7 +12430,7 @@
         <v>9700</v>
       </c>
       <c r="N149" t="n">
-        <v>21475.94587</v>
+        <v>14630.19836</v>
       </c>
       <c r="O149" t="n">
         <v>1805181.656</v>
@@ -12494,13 +12494,13 @@
         <v>2700</v>
       </c>
       <c r="G150" t="n">
-        <v>6319.91988678446</v>
+        <v>5279.13650044771</v>
       </c>
       <c r="H150" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I150" t="n">
-        <v>36394.75546</v>
+        <v>18825.02361</v>
       </c>
       <c r="J150" t="n">
         <v>82.35294117647059</v>
@@ -12515,7 +12515,7 @@
         <v>9700</v>
       </c>
       <c r="N150" t="n">
-        <v>21475.94587</v>
+        <v>14630.19836</v>
       </c>
       <c r="O150" t="n">
         <v>1805181.656</v>
@@ -12579,13 +12579,13 @@
         <v>2700</v>
       </c>
       <c r="G151" t="n">
-        <v>6319.91988678446</v>
+        <v>5279.13650044771</v>
       </c>
       <c r="H151" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I151" t="n">
-        <v>36394.75546</v>
+        <v>18825.02361</v>
       </c>
       <c r="J151" t="n">
         <v>82.35294117647059</v>
@@ -12600,7 +12600,7 @@
         <v>9700</v>
       </c>
       <c r="N151" t="n">
-        <v>21475.94587</v>
+        <v>14630.19836</v>
       </c>
       <c r="O151" t="n">
         <v>1805181.656</v>
@@ -13612,13 +13612,13 @@
         <v>1593.5</v>
       </c>
       <c r="G164" t="n">
-        <v>5143.23489144265</v>
+        <v>3824.06951089014</v>
       </c>
       <c r="H164" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I164" t="n">
-        <v>38147.54463</v>
+        <v>12781.00783</v>
       </c>
       <c r="J164" t="n">
         <v>73.9130434782609</v>
@@ -13633,7 +13633,7 @@
         <v>6040</v>
       </c>
       <c r="N164" t="n">
-        <v>10991.23377</v>
+        <v>10833.71847</v>
       </c>
       <c r="O164" t="n">
         <v>1805181.656</v>
@@ -13697,13 +13697,13 @@
         <v>1593.5</v>
       </c>
       <c r="G165" t="n">
-        <v>5143.23489144265</v>
+        <v>3824.06951089014</v>
       </c>
       <c r="H165" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I165" t="n">
-        <v>38147.54463</v>
+        <v>12781.00783</v>
       </c>
       <c r="J165" t="n">
         <v>73.9130434782609</v>
@@ -13718,7 +13718,7 @@
         <v>6040</v>
       </c>
       <c r="N165" t="n">
-        <v>10991.23377</v>
+        <v>10833.71847</v>
       </c>
       <c r="O165" t="n">
         <v>1805181.656</v>
@@ -13782,13 +13782,13 @@
         <v>1593.5</v>
       </c>
       <c r="G166" t="n">
-        <v>5143.23489144265</v>
+        <v>3824.06951089014</v>
       </c>
       <c r="H166" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I166" t="n">
-        <v>38147.54463</v>
+        <v>12781.00783</v>
       </c>
       <c r="J166" t="n">
         <v>73.9130434782609</v>
@@ -13803,7 +13803,7 @@
         <v>6040</v>
       </c>
       <c r="N166" t="n">
-        <v>10991.23377</v>
+        <v>10833.71847</v>
       </c>
       <c r="O166" t="n">
         <v>1805181.656</v>
@@ -13867,13 +13867,13 @@
         <v>1593.5</v>
       </c>
       <c r="G167" t="n">
-        <v>5143.23489144265</v>
+        <v>3824.06951089014</v>
       </c>
       <c r="H167" t="n">
-        <v>45353.4065086535</v>
+        <v>37000</v>
       </c>
       <c r="I167" t="n">
-        <v>38147.54463</v>
+        <v>12781.00783</v>
       </c>
       <c r="J167" t="n">
         <v>73.9130434782609</v>
@@ -13888,7 +13888,7 @@
         <v>6040</v>
       </c>
       <c r="N167" t="n">
-        <v>10991.23377</v>
+        <v>10833.71847</v>
       </c>
       <c r="O167" t="n">
         <v>1805181.656</v>

--- a/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
+++ b/state_results/Rivers/PiakatutuatdsSansonSTP_5fc26c37f1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U177"/>
+  <dimension ref="A1:U193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +657,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>0.28</v>
@@ -669,7 +672,7 @@
         <v>5.67475</v>
       </c>
       <c r="L2">
-        <v>0.6115</v>
+        <v>0.59</v>
       </c>
       <c r="M2">
         <v>2.25665</v>
@@ -684,19 +687,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -713,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0.28</v>
@@ -728,7 +731,7 @@
         <v>5.67475</v>
       </c>
       <c r="L3">
-        <v>0.6115</v>
+        <v>0.59</v>
       </c>
       <c r="M3">
         <v>2.25665</v>
@@ -743,19 +746,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -772,13 +775,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>913</v>
       </c>
       <c r="G4">
-        <v>9117.377889493921</v>
+        <v>9117.37752049446</v>
       </c>
       <c r="H4">
         <v>155312</v>
@@ -793,13 +796,13 @@
         <v>80</v>
       </c>
       <c r="L4">
-        <v>857</v>
+        <v>919.5</v>
       </c>
       <c r="M4">
         <v>7770.45</v>
       </c>
       <c r="N4">
-        <v>22776.7</v>
+        <v>22776.61</v>
       </c>
       <c r="O4">
         <v>1805181.656</v>
@@ -808,19 +811,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -837,13 +840,13 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>913</v>
       </c>
       <c r="G5">
-        <v>9117.377889493921</v>
+        <v>9117.37752049446</v>
       </c>
       <c r="H5">
         <v>155312</v>
@@ -858,13 +861,13 @@
         <v>80</v>
       </c>
       <c r="L5">
-        <v>857</v>
+        <v>919.5</v>
       </c>
       <c r="M5">
         <v>7770.45</v>
       </c>
       <c r="N5">
-        <v>22776.7</v>
+        <v>22776.61</v>
       </c>
       <c r="O5">
         <v>1805181.656</v>
@@ -873,19 +876,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,13 +905,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>913</v>
       </c>
       <c r="G6">
-        <v>9117.377889493921</v>
+        <v>9117.37752049446</v>
       </c>
       <c r="H6">
         <v>155312</v>
@@ -923,13 +926,13 @@
         <v>80</v>
       </c>
       <c r="L6">
-        <v>857</v>
+        <v>919.5</v>
       </c>
       <c r="M6">
         <v>7770.45</v>
       </c>
       <c r="N6">
-        <v>22776.7</v>
+        <v>22776.61</v>
       </c>
       <c r="O6">
         <v>1805181.656</v>
@@ -938,19 +941,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -967,13 +970,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>913</v>
       </c>
       <c r="G7">
-        <v>9117.377889493921</v>
+        <v>9117.37752049446</v>
       </c>
       <c r="H7">
         <v>155312</v>
@@ -988,13 +991,13 @@
         <v>80</v>
       </c>
       <c r="L7">
-        <v>857</v>
+        <v>919.5</v>
       </c>
       <c r="M7">
         <v>7770.45</v>
       </c>
       <c r="N7">
-        <v>22776.7</v>
+        <v>22776.61</v>
       </c>
       <c r="O7">
         <v>1805181.656</v>
@@ -1003,19 +1006,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1032,13 +1035,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>0.58591</v>
       </c>
       <c r="G8">
-        <v>2.13015787156702</v>
+        <v>2.13017112527314</v>
       </c>
       <c r="H8">
         <v>14.2116357496488</v>
@@ -1062,19 +1065,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1091,13 +1094,13 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0.58591</v>
       </c>
       <c r="G9">
-        <v>2.13015787156702</v>
+        <v>2.13017112527314</v>
       </c>
       <c r="H9">
         <v>14.2116357496488</v>
@@ -1121,19 +1124,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1150,13 +1153,13 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>0.2397</v>
       </c>
       <c r="G10">
-        <v>0.477676758834549</v>
+        <v>0.477674562688578</v>
       </c>
       <c r="H10">
         <v>2.96</v>
@@ -1165,7 +1168,7 @@
         <v>2.65475</v>
       </c>
       <c r="L10">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="M10">
         <v>0.8006</v>
@@ -1180,19 +1183,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1209,13 +1212,13 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>0.2397</v>
       </c>
       <c r="G11">
-        <v>0.477676758834549</v>
+        <v>0.477674562688578</v>
       </c>
       <c r="H11">
         <v>2.96</v>
@@ -1224,7 +1227,7 @@
         <v>2.65475</v>
       </c>
       <c r="L11">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="M11">
         <v>0.8006</v>
@@ -1239,19 +1242,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1265,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>2.0448</v>
@@ -1280,7 +1283,7 @@
         <v>23.07283</v>
       </c>
       <c r="L12">
-        <v>1.661</v>
+        <v>2.2655</v>
       </c>
       <c r="M12">
         <v>10.34987</v>
@@ -1295,19 +1298,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1321,7 +1324,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>2.0448</v>
@@ -1336,7 +1339,7 @@
         <v>23.07283</v>
       </c>
       <c r="L13">
-        <v>1.661</v>
+        <v>2.2655</v>
       </c>
       <c r="M13">
         <v>10.34987</v>
@@ -1351,19 +1354,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1377,7 +1380,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>5.1</v>
@@ -1392,7 +1395,7 @@
         <v>28.9</v>
       </c>
       <c r="L14">
-        <v>9.27</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="M14">
         <v>19.8725</v>
@@ -1407,19 +1410,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1433,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>5.1</v>
@@ -1448,7 +1451,7 @@
         <v>28.9</v>
       </c>
       <c r="L15">
-        <v>9.27</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="M15">
         <v>19.8725</v>
@@ -1463,19 +1466,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1489,7 +1492,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>0.765</v>
@@ -1504,7 +1507,7 @@
         <v>8.695</v>
       </c>
       <c r="L16">
-        <v>2.585</v>
+        <v>1.995</v>
       </c>
       <c r="M16">
         <v>4.6106</v>
@@ -1519,19 +1522,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1545,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0.765</v>
@@ -1560,7 +1563,7 @@
         <v>8.695</v>
       </c>
       <c r="L17">
-        <v>2.585</v>
+        <v>1.995</v>
       </c>
       <c r="M17">
         <v>4.6106</v>
@@ -1575,19 +1578,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1604,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0.57</v>
@@ -1619,7 +1622,7 @@
         <v>6.32975</v>
       </c>
       <c r="L18">
-        <v>1.5565</v>
+        <v>0.996</v>
       </c>
       <c r="M18">
         <v>4.88295</v>
@@ -1634,19 +1637,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0.57</v>
@@ -1678,7 +1681,7 @@
         <v>6.32975</v>
       </c>
       <c r="L19">
-        <v>1.5565</v>
+        <v>0.996</v>
       </c>
       <c r="M19">
         <v>4.88295</v>
@@ -1693,19 +1696,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1722,13 +1725,13 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>1100</v>
       </c>
       <c r="G20">
-        <v>5232.08698040301</v>
+        <v>5232.092065949</v>
       </c>
       <c r="H20">
         <v>120330</v>
@@ -1743,7 +1746,7 @@
         <v>81.8181818181818</v>
       </c>
       <c r="L20">
-        <v>857</v>
+        <v>1034.5</v>
       </c>
       <c r="M20">
         <v>5022.85</v>
@@ -1758,19 +1761,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1787,13 +1790,13 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>1100</v>
       </c>
       <c r="G21">
-        <v>5232.08698040301</v>
+        <v>5232.092065949</v>
       </c>
       <c r="H21">
         <v>120330</v>
@@ -1808,7 +1811,7 @@
         <v>81.8181818181818</v>
       </c>
       <c r="L21">
-        <v>857</v>
+        <v>1034.5</v>
       </c>
       <c r="M21">
         <v>5022.85</v>
@@ -1823,19 +1826,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1852,13 +1855,13 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>1100</v>
       </c>
       <c r="G22">
-        <v>5232.08698040301</v>
+        <v>5232.092065949</v>
       </c>
       <c r="H22">
         <v>120330</v>
@@ -1873,7 +1876,7 @@
         <v>81.8181818181818</v>
       </c>
       <c r="L22">
-        <v>857</v>
+        <v>1034.5</v>
       </c>
       <c r="M22">
         <v>5022.85</v>
@@ -1888,19 +1891,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1917,13 +1920,13 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>1100</v>
       </c>
       <c r="G23">
-        <v>5232.08698040301</v>
+        <v>5232.092065949</v>
       </c>
       <c r="H23">
         <v>120330</v>
@@ -1938,7 +1941,7 @@
         <v>81.8181818181818</v>
       </c>
       <c r="L23">
-        <v>857</v>
+        <v>1034.5</v>
       </c>
       <c r="M23">
         <v>5022.85</v>
@@ -1953,19 +1956,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1982,13 +1985,13 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>1.47196</v>
       </c>
       <c r="G24">
-        <v>3.09641660704427</v>
+        <v>3.09642986075039</v>
       </c>
       <c r="H24">
         <v>14.2116357496488</v>
@@ -1997,7 +2000,7 @@
         <v>12.69472</v>
       </c>
       <c r="L24">
-        <v>4.25334</v>
+        <v>2.10126</v>
       </c>
       <c r="M24">
         <v>6.15704</v>
@@ -2012,19 +2015,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2041,13 +2044,13 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>1.47196</v>
       </c>
       <c r="G25">
-        <v>3.09641660704427</v>
+        <v>3.09642986075039</v>
       </c>
       <c r="H25">
         <v>14.2116357496488</v>
@@ -2056,7 +2059,7 @@
         <v>12.69472</v>
       </c>
       <c r="L25">
-        <v>4.25334</v>
+        <v>2.10126</v>
       </c>
       <c r="M25">
         <v>6.15704</v>
@@ -2071,19 +2074,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2100,13 +2103,13 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0.217</v>
       </c>
       <c r="G26">
-        <v>0.383764620864631</v>
+        <v>0.383762824017927</v>
       </c>
       <c r="H26">
         <v>2.96</v>
@@ -2115,7 +2118,7 @@
         <v>1.18575</v>
       </c>
       <c r="L26">
-        <v>0.023</v>
+        <v>0.0336</v>
       </c>
       <c r="M26">
         <v>0.7</v>
@@ -2130,19 +2133,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2159,13 +2162,13 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0.217</v>
       </c>
       <c r="G27">
-        <v>0.383764620864631</v>
+        <v>0.383762824017927</v>
       </c>
       <c r="H27">
         <v>2.96</v>
@@ -2174,7 +2177,7 @@
         <v>1.18575</v>
       </c>
       <c r="L27">
-        <v>0.023</v>
+        <v>0.0336</v>
       </c>
       <c r="M27">
         <v>0.7</v>
@@ -2189,19 +2192,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2215,7 +2218,7 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>3.46</v>
@@ -2230,7 +2233,7 @@
         <v>23.2695</v>
       </c>
       <c r="L28">
-        <v>6.3985</v>
+        <v>5.41635</v>
       </c>
       <c r="M28">
         <v>15.80875</v>
@@ -2245,19 +2248,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2271,7 +2274,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>3.46</v>
@@ -2286,7 +2289,7 @@
         <v>23.2695</v>
       </c>
       <c r="L29">
-        <v>6.3985</v>
+        <v>5.41635</v>
       </c>
       <c r="M29">
         <v>15.80875</v>
@@ -2301,19 +2304,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2327,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>6.7</v>
@@ -2342,7 +2345,7 @@
         <v>38.505</v>
       </c>
       <c r="L30">
-        <v>16.125</v>
+        <v>11.85</v>
       </c>
       <c r="M30">
         <v>27.2095</v>
@@ -2357,19 +2360,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2383,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>6.7</v>
@@ -2398,7 +2401,7 @@
         <v>38.505</v>
       </c>
       <c r="L31">
-        <v>16.125</v>
+        <v>11.85</v>
       </c>
       <c r="M31">
         <v>27.2095</v>
@@ -2413,19 +2416,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2439,7 +2442,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>1.159</v>
@@ -2454,7 +2457,7 @@
         <v>8.964</v>
       </c>
       <c r="L32">
-        <v>4.1105</v>
+        <v>3.0465</v>
       </c>
       <c r="M32">
         <v>7.12045</v>
@@ -2469,19 +2472,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2495,7 +2498,7 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>1.159</v>
@@ -2510,7 +2513,7 @@
         <v>8.964</v>
       </c>
       <c r="L33">
-        <v>4.1105</v>
+        <v>3.0465</v>
       </c>
       <c r="M33">
         <v>7.12045</v>
@@ -2525,19 +2528,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2554,7 +2557,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>1.134</v>
@@ -2569,7 +2572,7 @@
         <v>6.9381</v>
       </c>
       <c r="L34">
-        <v>5.1905</v>
+        <v>4.067</v>
       </c>
       <c r="M34">
         <v>5.44938</v>
@@ -2584,19 +2587,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2613,7 +2616,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>1.134</v>
@@ -2628,7 +2631,7 @@
         <v>6.9381</v>
       </c>
       <c r="L35">
-        <v>5.1905</v>
+        <v>4.067</v>
       </c>
       <c r="M35">
         <v>5.44938</v>
@@ -2643,19 +2646,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2672,13 +2675,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>1048</v>
       </c>
       <c r="G36">
-        <v>4830.94257003867</v>
+        <v>4830.92970762849</v>
       </c>
       <c r="H36">
         <v>120330</v>
@@ -2693,7 +2696,7 @@
         <v>78.5714285714286</v>
       </c>
       <c r="L36">
-        <v>857</v>
+        <v>985</v>
       </c>
       <c r="M36">
         <v>3396.74</v>
@@ -2708,19 +2711,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2737,13 +2740,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>1048</v>
       </c>
       <c r="G37">
-        <v>4830.94257003867</v>
+        <v>4830.92970762849</v>
       </c>
       <c r="H37">
         <v>120330</v>
@@ -2758,7 +2761,7 @@
         <v>78.5714285714286</v>
       </c>
       <c r="L37">
-        <v>857</v>
+        <v>985</v>
       </c>
       <c r="M37">
         <v>3396.74</v>
@@ -2773,19 +2776,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2802,13 +2805,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>1048</v>
       </c>
       <c r="G38">
-        <v>4830.94257003867</v>
+        <v>4830.92970762849</v>
       </c>
       <c r="H38">
         <v>120330</v>
@@ -2823,7 +2826,7 @@
         <v>78.5714285714286</v>
       </c>
       <c r="L38">
-        <v>857</v>
+        <v>985</v>
       </c>
       <c r="M38">
         <v>3396.74</v>
@@ -2838,19 +2841,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2867,13 +2870,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>1048</v>
       </c>
       <c r="G39">
-        <v>4830.94257003867</v>
+        <v>4830.92970762849</v>
       </c>
       <c r="H39">
         <v>120330</v>
@@ -2888,7 +2891,7 @@
         <v>78.5714285714286</v>
       </c>
       <c r="L39">
-        <v>857</v>
+        <v>985</v>
       </c>
       <c r="M39">
         <v>3396.74</v>
@@ -2903,19 +2906,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2932,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>3.23195</v>
@@ -2947,7 +2950,7 @@
         <v>13.64309</v>
       </c>
       <c r="L40">
-        <v>5.45942</v>
+        <v>5.18307</v>
       </c>
       <c r="M40">
         <v>6.95661</v>
@@ -2962,19 +2965,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2991,7 +2994,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>3.23195</v>
@@ -3006,7 +3009,7 @@
         <v>13.64309</v>
       </c>
       <c r="L41">
-        <v>5.45942</v>
+        <v>5.18307</v>
       </c>
       <c r="M41">
         <v>6.95661</v>
@@ -3021,19 +3024,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3050,13 +3053,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>0.2379</v>
       </c>
       <c r="G42">
-        <v>0.46512735331533</v>
+        <v>0.465126388432016</v>
       </c>
       <c r="H42">
         <v>2.96</v>
@@ -3065,7 +3068,7 @@
         <v>2.04342</v>
       </c>
       <c r="L42">
-        <v>0.03235</v>
+        <v>0.03705</v>
       </c>
       <c r="M42">
         <v>0.80542</v>
@@ -3080,19 +3083,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3109,13 +3112,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>0.2379</v>
       </c>
       <c r="G43">
-        <v>0.46512735331533</v>
+        <v>0.465126388432016</v>
       </c>
       <c r="H43">
         <v>2.96</v>
@@ -3124,7 +3127,7 @@
         <v>2.04342</v>
       </c>
       <c r="L43">
-        <v>0.03235</v>
+        <v>0.03705</v>
       </c>
       <c r="M43">
         <v>0.80542</v>
@@ -3139,19 +3142,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3165,7 +3168,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>7.286</v>
@@ -3180,7 +3183,7 @@
         <v>23.26286</v>
       </c>
       <c r="L44">
-        <v>13.8189</v>
+        <v>13.81705</v>
       </c>
       <c r="M44">
         <v>16.71468</v>
@@ -3195,19 +3198,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3221,7 +3224,7 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>7.286</v>
@@ -3236,7 +3239,7 @@
         <v>23.26286</v>
       </c>
       <c r="L45">
-        <v>13.8189</v>
+        <v>13.81705</v>
       </c>
       <c r="M45">
         <v>16.71468</v>
@@ -3251,19 +3254,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3277,7 +3280,7 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>11.095</v>
@@ -3292,7 +3295,7 @@
         <v>39.56</v>
       </c>
       <c r="L46">
-        <v>23.995</v>
+        <v>22.545</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -3307,19 +3310,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3333,7 +3336,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>11.095</v>
@@ -3348,7 +3351,7 @@
         <v>39.56</v>
       </c>
       <c r="L47">
-        <v>23.995</v>
+        <v>22.545</v>
       </c>
       <c r="M47">
         <v>28</v>
@@ -3363,19 +3366,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3389,7 +3392,7 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>1.783</v>
@@ -3404,7 +3407,7 @@
         <v>8.9534</v>
       </c>
       <c r="L48">
-        <v>6.795</v>
+        <v>4.8815</v>
       </c>
       <c r="M48">
         <v>7.18934</v>
@@ -3419,19 +3422,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3445,7 +3448,7 @@
         <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>1.783</v>
@@ -3460,7 +3463,7 @@
         <v>8.9534</v>
       </c>
       <c r="L49">
-        <v>6.795</v>
+        <v>4.8815</v>
       </c>
       <c r="M49">
         <v>7.18934</v>
@@ -3475,19 +3478,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3504,7 +3507,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>1.986</v>
@@ -3519,7 +3522,7 @@
         <v>7.4836</v>
       </c>
       <c r="L50">
-        <v>5.5995</v>
+        <v>4.765</v>
       </c>
       <c r="M50">
         <v>5.84181</v>
@@ -3534,19 +3537,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3563,7 +3566,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <v>1.986</v>
@@ -3578,7 +3581,7 @@
         <v>7.4836</v>
       </c>
       <c r="L51">
-        <v>5.5995</v>
+        <v>4.765</v>
       </c>
       <c r="M51">
         <v>5.84181</v>
@@ -3593,19 +3596,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3622,13 +3625,13 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <v>1127</v>
       </c>
       <c r="G52">
-        <v>7775.45562900086</v>
+        <v>7238.040988476</v>
       </c>
       <c r="H52">
         <v>120330</v>
@@ -3643,7 +3646,7 @@
         <v>80.7017543859649</v>
       </c>
       <c r="L52">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="M52">
         <v>4696.53</v>
@@ -3658,19 +3661,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,13 +3690,13 @@
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>1127</v>
       </c>
       <c r="G53">
-        <v>7775.45562900086</v>
+        <v>7238.040988476</v>
       </c>
       <c r="H53">
         <v>120330</v>
@@ -3708,7 +3711,7 @@
         <v>80.7017543859649</v>
       </c>
       <c r="L53">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="M53">
         <v>4696.53</v>
@@ -3723,19 +3726,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3752,13 +3755,13 @@
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>1127</v>
       </c>
       <c r="G54">
-        <v>7775.45562900086</v>
+        <v>7238.040988476</v>
       </c>
       <c r="H54">
         <v>120330</v>
@@ -3773,7 +3776,7 @@
         <v>80.7017543859649</v>
       </c>
       <c r="L54">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="M54">
         <v>4696.53</v>
@@ -3788,19 +3791,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3817,13 +3820,13 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>1127</v>
       </c>
       <c r="G55">
-        <v>7775.45562900086</v>
+        <v>7238.040988476</v>
       </c>
       <c r="H55">
         <v>120330</v>
@@ -3838,7 +3841,7 @@
         <v>80.7017543859649</v>
       </c>
       <c r="L55">
-        <v>750</v>
+        <v>985</v>
       </c>
       <c r="M55">
         <v>4696.53</v>
@@ -3853,19 +3856,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3882,7 +3885,7 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>4.05646</v>
@@ -3912,19 +3915,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3941,7 +3944,7 @@
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>4.05646</v>
@@ -3971,19 +3974,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4000,13 +4003,13 @@
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <v>0.2361</v>
       </c>
       <c r="G58">
-        <v>0.384581259397517</v>
+        <v>0.384580311441981</v>
       </c>
       <c r="H58">
         <v>2.1453</v>
@@ -4015,7 +4018,7 @@
         <v>1.33035</v>
       </c>
       <c r="L58">
-        <v>0.0585</v>
+        <v>0.0706</v>
       </c>
       <c r="M58">
         <v>0.76237</v>
@@ -4030,19 +4033,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4059,13 +4062,13 @@
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>0.2361</v>
       </c>
       <c r="G59">
-        <v>0.384581259397517</v>
+        <v>0.384580311441981</v>
       </c>
       <c r="H59">
         <v>2.1453</v>
@@ -4074,7 +4077,7 @@
         <v>1.33035</v>
       </c>
       <c r="L59">
-        <v>0.0585</v>
+        <v>0.0706</v>
       </c>
       <c r="M59">
         <v>0.76237</v>
@@ -4089,19 +4092,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4115,7 +4118,7 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <v>11.04</v>
@@ -4145,19 +4148,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4171,7 +4174,7 @@
         <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>11.04</v>
@@ -4201,19 +4204,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4227,7 +4230,7 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>16.35</v>
@@ -4242,7 +4245,7 @@
         <v>40.321</v>
       </c>
       <c r="L62">
-        <v>25.01</v>
+        <v>24.84</v>
       </c>
       <c r="M62">
         <v>29.443</v>
@@ -4257,19 +4260,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4283,7 +4286,7 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>16.35</v>
@@ -4298,7 +4301,7 @@
         <v>40.321</v>
       </c>
       <c r="L63">
-        <v>25.01</v>
+        <v>24.84</v>
       </c>
       <c r="M63">
         <v>29.443</v>
@@ -4313,19 +4316,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4339,7 +4342,7 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <v>2.68</v>
@@ -4354,7 +4357,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L64">
-        <v>7.054</v>
+        <v>6.795</v>
       </c>
       <c r="M64">
         <v>8.5372</v>
@@ -4369,19 +4372,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4395,7 +4398,7 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>2.68</v>
@@ -4410,7 +4413,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L65">
-        <v>7.054</v>
+        <v>6.795</v>
       </c>
       <c r="M65">
         <v>8.5372</v>
@@ -4425,19 +4428,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4454,7 +4457,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>2.185</v>
@@ -4469,7 +4472,7 @@
         <v>7.468</v>
       </c>
       <c r="L66">
-        <v>5.5995</v>
+        <v>5.031</v>
       </c>
       <c r="M66">
         <v>6.0287</v>
@@ -4484,19 +4487,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4513,7 +4516,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>2.185</v>
@@ -4528,7 +4531,7 @@
         <v>7.468</v>
       </c>
       <c r="L67">
-        <v>5.5995</v>
+        <v>5.031</v>
       </c>
       <c r="M67">
         <v>6.0287</v>
@@ -4543,19 +4546,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4572,16 +4575,16 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>1422</v>
       </c>
       <c r="G68">
-        <v>4952.11618088415</v>
+        <v>4441.57227238553</v>
       </c>
       <c r="H68">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I68">
         <v>12500</v>
@@ -4593,7 +4596,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L68">
-        <v>857</v>
+        <v>1600</v>
       </c>
       <c r="M68">
         <v>4005.4</v>
@@ -4608,19 +4611,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,16 +4640,16 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>1422</v>
       </c>
       <c r="G69">
-        <v>4952.11618088415</v>
+        <v>4441.57227238553</v>
       </c>
       <c r="H69">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I69">
         <v>12500</v>
@@ -4658,7 +4661,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L69">
-        <v>857</v>
+        <v>1600</v>
       </c>
       <c r="M69">
         <v>4005.4</v>
@@ -4673,19 +4676,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4702,16 +4705,16 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>1422</v>
       </c>
       <c r="G70">
-        <v>4952.11618088415</v>
+        <v>4441.57227238553</v>
       </c>
       <c r="H70">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I70">
         <v>12500</v>
@@ -4723,7 +4726,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L70">
-        <v>857</v>
+        <v>1600</v>
       </c>
       <c r="M70">
         <v>4005.4</v>
@@ -4738,19 +4741,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4767,16 +4770,16 @@
         <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>1422</v>
       </c>
       <c r="G71">
-        <v>4952.11618088415</v>
+        <v>4441.57227238553</v>
       </c>
       <c r="H71">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I71">
         <v>12500</v>
@@ -4788,7 +4791,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L71">
-        <v>857</v>
+        <v>1600</v>
       </c>
       <c r="M71">
         <v>4005.4</v>
@@ -4803,19 +4806,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4832,7 +4835,7 @@
         <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72">
         <v>4.75242</v>
@@ -4847,7 +4850,7 @@
         <v>12.97715</v>
       </c>
       <c r="L72">
-        <v>5.91563</v>
+        <v>5.7426</v>
       </c>
       <c r="M72">
         <v>8.54583</v>
@@ -4862,19 +4865,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4891,7 +4894,7 @@
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <v>4.75242</v>
@@ -4906,7 +4909,7 @@
         <v>12.97715</v>
       </c>
       <c r="L73">
-        <v>5.91563</v>
+        <v>5.7426</v>
       </c>
       <c r="M73">
         <v>8.54583</v>
@@ -4921,19 +4924,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4950,13 +4953,13 @@
         <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74">
         <v>0.23155</v>
       </c>
       <c r="G74">
-        <v>0.385883863094308</v>
+        <v>0.385882962536548</v>
       </c>
       <c r="H74">
         <v>2.1453</v>
@@ -4965,7 +4968,7 @@
         <v>1.3005</v>
       </c>
       <c r="L74">
-        <v>0.0468</v>
+        <v>0.08765000000000001</v>
       </c>
       <c r="M74">
         <v>0.7806</v>
@@ -4980,19 +4983,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5009,13 +5012,13 @@
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75">
         <v>0.23155</v>
       </c>
       <c r="G75">
-        <v>0.385883863094308</v>
+        <v>0.385882962536548</v>
       </c>
       <c r="H75">
         <v>2.1453</v>
@@ -5024,7 +5027,7 @@
         <v>1.3005</v>
       </c>
       <c r="L75">
-        <v>0.0468</v>
+        <v>0.08765000000000001</v>
       </c>
       <c r="M75">
         <v>0.7806</v>
@@ -5039,19 +5042,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5065,7 +5068,7 @@
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <v>12.00235</v>
@@ -5080,7 +5083,7 @@
         <v>24.35405</v>
       </c>
       <c r="L76">
-        <v>15.01085</v>
+        <v>14.92165</v>
       </c>
       <c r="M76">
         <v>21.52653</v>
@@ -5095,19 +5098,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5121,7 +5124,7 @@
         <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <v>12.00235</v>
@@ -5136,7 +5139,7 @@
         <v>24.35405</v>
       </c>
       <c r="L77">
-        <v>15.01085</v>
+        <v>14.92165</v>
       </c>
       <c r="M77">
         <v>21.52653</v>
@@ -5151,19 +5154,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5177,7 +5180,7 @@
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <v>18.04</v>
@@ -5192,7 +5195,7 @@
         <v>39.82</v>
       </c>
       <c r="L78">
-        <v>25.8</v>
+        <v>25.25</v>
       </c>
       <c r="M78">
         <v>29.93</v>
@@ -5207,19 +5210,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5233,7 +5236,7 @@
         <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>18.04</v>
@@ -5248,7 +5251,7 @@
         <v>39.82</v>
       </c>
       <c r="L79">
-        <v>25.8</v>
+        <v>25.25</v>
       </c>
       <c r="M79">
         <v>29.93</v>
@@ -5263,19 +5266,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5289,7 +5292,7 @@
         <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80">
         <v>3.1795</v>
@@ -5304,7 +5307,7 @@
         <v>9.59</v>
       </c>
       <c r="L80">
-        <v>7.1495</v>
+        <v>6.795</v>
       </c>
       <c r="M80">
         <v>8.476000000000001</v>
@@ -5319,19 +5322,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5345,7 +5348,7 @@
         <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81">
         <v>3.1795</v>
@@ -5360,7 +5363,7 @@
         <v>9.59</v>
       </c>
       <c r="L81">
-        <v>7.1495</v>
+        <v>6.795</v>
       </c>
       <c r="M81">
         <v>8.476000000000001</v>
@@ -5375,19 +5378,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5404,7 +5407,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <v>2.105</v>
@@ -5419,7 +5422,7 @@
         <v>7.468</v>
       </c>
       <c r="L82">
-        <v>6.0845</v>
+        <v>5.535</v>
       </c>
       <c r="M82">
         <v>6.5013</v>
@@ -5434,19 +5437,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5463,7 +5466,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <v>2.105</v>
@@ -5478,7 +5481,7 @@
         <v>7.468</v>
       </c>
       <c r="L83">
-        <v>6.0845</v>
+        <v>5.535</v>
       </c>
       <c r="M83">
         <v>6.5013</v>
@@ -5493,19 +5496,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5522,16 +5525,16 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>1770.5</v>
       </c>
       <c r="G84">
-        <v>5933.59607903071</v>
+        <v>5395.83156030198</v>
       </c>
       <c r="H84">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I84">
         <v>16500</v>
@@ -5543,13 +5546,13 @@
         <v>85</v>
       </c>
       <c r="L84">
-        <v>670</v>
+        <v>1720.5</v>
       </c>
       <c r="M84">
         <v>6718.4</v>
       </c>
       <c r="N84">
-        <v>13339.33817</v>
+        <v>13100</v>
       </c>
       <c r="O84">
         <v>1805181.656</v>
@@ -5558,19 +5561,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,16 +5590,16 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <v>1770.5</v>
       </c>
       <c r="G85">
-        <v>5933.59607903071</v>
+        <v>5395.83156030198</v>
       </c>
       <c r="H85">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I85">
         <v>16500</v>
@@ -5608,13 +5611,13 @@
         <v>85</v>
       </c>
       <c r="L85">
-        <v>670</v>
+        <v>1720.5</v>
       </c>
       <c r="M85">
         <v>6718.4</v>
       </c>
       <c r="N85">
-        <v>13339.33817</v>
+        <v>13100</v>
       </c>
       <c r="O85">
         <v>1805181.656</v>
@@ -5623,19 +5626,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5652,16 +5655,16 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>1770.5</v>
       </c>
       <c r="G86">
-        <v>5933.59607903071</v>
+        <v>5395.83156030198</v>
       </c>
       <c r="H86">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I86">
         <v>16500</v>
@@ -5673,13 +5676,13 @@
         <v>85</v>
       </c>
       <c r="L86">
-        <v>670</v>
+        <v>1720.5</v>
       </c>
       <c r="M86">
         <v>6718.4</v>
       </c>
       <c r="N86">
-        <v>13339.33817</v>
+        <v>13100</v>
       </c>
       <c r="O86">
         <v>1805181.656</v>
@@ -5688,19 +5691,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5717,16 +5720,16 @@
         <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87">
         <v>1770.5</v>
       </c>
       <c r="G87">
-        <v>5933.59607903071</v>
+        <v>5395.83156030198</v>
       </c>
       <c r="H87">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I87">
         <v>16500</v>
@@ -5738,13 +5741,13 @@
         <v>85</v>
       </c>
       <c r="L87">
-        <v>670</v>
+        <v>1720.5</v>
       </c>
       <c r="M87">
         <v>6718.4</v>
       </c>
       <c r="N87">
-        <v>13339.33817</v>
+        <v>13100</v>
       </c>
       <c r="O87">
         <v>1805181.656</v>
@@ -5753,19 +5756,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5782,7 +5785,7 @@
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>4.75875</v>
@@ -5797,7 +5800,7 @@
         <v>13.42542</v>
       </c>
       <c r="L88">
-        <v>7.0328</v>
+        <v>5.95906</v>
       </c>
       <c r="M88">
         <v>8.68815</v>
@@ -5812,19 +5815,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5841,7 +5844,7 @@
         <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>4.75875</v>
@@ -5856,7 +5859,7 @@
         <v>13.42542</v>
       </c>
       <c r="L89">
-        <v>7.0328</v>
+        <v>5.95906</v>
       </c>
       <c r="M89">
         <v>8.68815</v>
@@ -5871,19 +5874,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5900,13 +5903,13 @@
         <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <v>0.2017</v>
       </c>
       <c r="G90">
-        <v>0.347623863094308</v>
+        <v>0.347622962536549</v>
       </c>
       <c r="H90">
         <v>2.1453</v>
@@ -5915,7 +5918,7 @@
         <v>1.265</v>
       </c>
       <c r="L90">
-        <v>0.0438</v>
+        <v>0.0585</v>
       </c>
       <c r="M90">
         <v>0.66521</v>
@@ -5930,19 +5933,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5959,13 +5962,13 @@
         <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <v>0.2017</v>
       </c>
       <c r="G91">
-        <v>0.347623863094308</v>
+        <v>0.347622962536549</v>
       </c>
       <c r="H91">
         <v>2.1453</v>
@@ -5974,7 +5977,7 @@
         <v>1.265</v>
       </c>
       <c r="L91">
-        <v>0.0438</v>
+        <v>0.0585</v>
       </c>
       <c r="M91">
         <v>0.66521</v>
@@ -5989,19 +5992,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6015,7 +6018,7 @@
         <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92">
         <v>11.5</v>
@@ -6030,7 +6033,7 @@
         <v>24.405</v>
       </c>
       <c r="L92">
-        <v>15.52095</v>
+        <v>14.85</v>
       </c>
       <c r="M92">
         <v>21.15237</v>
@@ -6045,19 +6048,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6071,7 +6074,7 @@
         <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <v>11.5</v>
@@ -6086,7 +6089,7 @@
         <v>24.405</v>
       </c>
       <c r="L93">
-        <v>15.52095</v>
+        <v>14.85</v>
       </c>
       <c r="M93">
         <v>21.15237</v>
@@ -6101,19 +6104,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6127,7 +6130,7 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94">
         <v>16.64</v>
@@ -6142,7 +6145,7 @@
         <v>36.65</v>
       </c>
       <c r="L94">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="M94">
         <v>31.494</v>
@@ -6157,19 +6160,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6183,7 +6186,7 @@
         <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95">
         <v>16.64</v>
@@ -6198,7 +6201,7 @@
         <v>36.65</v>
       </c>
       <c r="L95">
-        <v>28.7</v>
+        <v>25.8</v>
       </c>
       <c r="M95">
         <v>31.494</v>
@@ -6213,19 +6216,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6239,7 +6242,7 @@
         <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -6254,7 +6257,7 @@
         <v>9.59</v>
       </c>
       <c r="L96">
-        <v>8.185</v>
+        <v>7.5305</v>
       </c>
       <c r="M96">
         <v>8.476000000000001</v>
@@ -6269,19 +6272,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6295,7 +6298,7 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -6310,7 +6313,7 @@
         <v>9.59</v>
       </c>
       <c r="L97">
-        <v>8.185</v>
+        <v>7.5305</v>
       </c>
       <c r="M97">
         <v>8.476000000000001</v>
@@ -6325,19 +6328,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6354,7 +6357,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <v>2.003</v>
@@ -6369,7 +6372,7 @@
         <v>7.34</v>
       </c>
       <c r="L98">
-        <v>5.61</v>
+        <v>5.025</v>
       </c>
       <c r="M98">
         <v>6.432</v>
@@ -6384,19 +6387,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6413,7 +6416,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <v>2.003</v>
@@ -6428,7 +6431,7 @@
         <v>7.34</v>
       </c>
       <c r="L99">
-        <v>5.61</v>
+        <v>5.025</v>
       </c>
       <c r="M99">
         <v>6.432</v>
@@ -6443,19 +6446,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6472,19 +6475,19 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <v>2245</v>
       </c>
       <c r="G100">
-        <v>7901.22073891098</v>
+        <v>6496.4126314291</v>
       </c>
       <c r="H100">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I100">
-        <v>47500</v>
+        <v>28000</v>
       </c>
       <c r="J100">
         <v>81.6666666666667</v>
@@ -6493,13 +6496,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L100">
-        <v>860</v>
+        <v>1650</v>
       </c>
       <c r="M100">
-        <v>10230</v>
+        <v>9979.367179999999</v>
       </c>
       <c r="N100">
-        <v>18852.55544</v>
+        <v>14060.97832</v>
       </c>
       <c r="O100">
         <v>1805181.656</v>
@@ -6508,19 +6511,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,19 +6540,19 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101">
         <v>2245</v>
       </c>
       <c r="G101">
-        <v>7901.22073891098</v>
+        <v>6496.4126314291</v>
       </c>
       <c r="H101">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I101">
-        <v>47500</v>
+        <v>28000</v>
       </c>
       <c r="J101">
         <v>81.6666666666667</v>
@@ -6558,13 +6561,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L101">
-        <v>860</v>
+        <v>1650</v>
       </c>
       <c r="M101">
-        <v>10230</v>
+        <v>9979.367179999999</v>
       </c>
       <c r="N101">
-        <v>18852.55544</v>
+        <v>14060.97832</v>
       </c>
       <c r="O101">
         <v>1805181.656</v>
@@ -6573,19 +6576,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6602,19 +6605,19 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>2245</v>
       </c>
       <c r="G102">
-        <v>7901.22073891098</v>
+        <v>6496.4126314291</v>
       </c>
       <c r="H102">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I102">
-        <v>47500</v>
+        <v>28000</v>
       </c>
       <c r="J102">
         <v>81.6666666666667</v>
@@ -6623,13 +6626,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L102">
-        <v>860</v>
+        <v>1650</v>
       </c>
       <c r="M102">
-        <v>10230</v>
+        <v>9979.367179999999</v>
       </c>
       <c r="N102">
-        <v>18852.55544</v>
+        <v>14060.97832</v>
       </c>
       <c r="O102">
         <v>1805181.656</v>
@@ -6638,19 +6641,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6667,19 +6670,19 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103">
         <v>2245</v>
       </c>
       <c r="G103">
-        <v>7901.22073891098</v>
+        <v>6496.4126314291</v>
       </c>
       <c r="H103">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I103">
-        <v>47500</v>
+        <v>28000</v>
       </c>
       <c r="J103">
         <v>81.6666666666667</v>
@@ -6688,13 +6691,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L103">
-        <v>860</v>
+        <v>1650</v>
       </c>
       <c r="M103">
-        <v>10230</v>
+        <v>9979.367179999999</v>
       </c>
       <c r="N103">
-        <v>18852.55544</v>
+        <v>14060.97832</v>
       </c>
       <c r="O103">
         <v>1805181.656</v>
@@ -6703,19 +6706,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6732,7 +6735,7 @@
         <v>49</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F104">
         <v>4.76852</v>
@@ -6747,7 +6750,7 @@
         <v>24.27851</v>
       </c>
       <c r="L104">
-        <v>8.003690000000001</v>
+        <v>7.33671</v>
       </c>
       <c r="M104">
         <v>10.73298</v>
@@ -6762,19 +6765,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6791,7 +6794,7 @@
         <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>4.76852</v>
@@ -6806,7 +6809,7 @@
         <v>24.27851</v>
       </c>
       <c r="L105">
-        <v>8.003690000000001</v>
+        <v>7.33671</v>
       </c>
       <c r="M105">
         <v>10.73298</v>
@@ -6821,19 +6824,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6850,13 +6853,13 @@
         <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>0.2055</v>
       </c>
       <c r="G106">
-        <v>0.372889655108362</v>
+        <v>0.372884795297174</v>
       </c>
       <c r="H106">
         <v>2.1453</v>
@@ -6865,7 +6868,7 @@
         <v>1.515</v>
       </c>
       <c r="L106">
-        <v>0.053</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M106">
         <v>0.7806</v>
@@ -6880,19 +6883,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6909,13 +6912,13 @@
         <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>0.2055</v>
       </c>
       <c r="G107">
-        <v>0.372889655108362</v>
+        <v>0.372884795297174</v>
       </c>
       <c r="H107">
         <v>2.1453</v>
@@ -6924,7 +6927,7 @@
         <v>1.515</v>
       </c>
       <c r="L107">
-        <v>0.053</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M107">
         <v>0.7806</v>
@@ -6939,19 +6942,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6965,7 +6968,7 @@
         <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108">
         <v>11.5</v>
@@ -6980,7 +6983,7 @@
         <v>27.615</v>
       </c>
       <c r="L108">
-        <v>17.06</v>
+        <v>15.71</v>
       </c>
       <c r="M108">
         <v>22.6429</v>
@@ -6995,19 +6998,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7021,7 +7024,7 @@
         <v>49</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109">
         <v>11.5</v>
@@ -7036,7 +7039,7 @@
         <v>27.615</v>
       </c>
       <c r="L109">
-        <v>17.06</v>
+        <v>15.71</v>
       </c>
       <c r="M109">
         <v>22.6429</v>
@@ -7051,19 +7054,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7077,7 +7080,7 @@
         <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110">
         <v>17.155</v>
@@ -7092,7 +7095,7 @@
         <v>41.55</v>
       </c>
       <c r="L110">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="M110">
         <v>35.03</v>
@@ -7107,19 +7110,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7133,7 +7136,7 @@
         <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111">
         <v>17.155</v>
@@ -7148,7 +7151,7 @@
         <v>41.55</v>
       </c>
       <c r="L111">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="M111">
         <v>35.03</v>
@@ -7163,19 +7166,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7189,7 +7192,7 @@
         <v>49</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112">
         <v>3.15</v>
@@ -7204,7 +7207,7 @@
         <v>9.574999999999999</v>
       </c>
       <c r="L112">
-        <v>8.1</v>
+        <v>7.665</v>
       </c>
       <c r="M112">
         <v>8.476000000000001</v>
@@ -7219,19 +7222,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7245,7 +7248,7 @@
         <v>49</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>3.15</v>
@@ -7260,7 +7263,7 @@
         <v>9.574999999999999</v>
       </c>
       <c r="L113">
-        <v>8.1</v>
+        <v>7.665</v>
       </c>
       <c r="M113">
         <v>8.476000000000001</v>
@@ -7275,19 +7278,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7304,7 +7307,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>1.78</v>
@@ -7319,7 +7322,7 @@
         <v>7.1425</v>
       </c>
       <c r="L114">
-        <v>5.1</v>
+        <v>4.765</v>
       </c>
       <c r="M114">
         <v>6.2275</v>
@@ -7334,19 +7337,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7363,7 +7366,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F115">
         <v>1.78</v>
@@ -7378,7 +7381,7 @@
         <v>7.1425</v>
       </c>
       <c r="L115">
-        <v>5.1</v>
+        <v>4.765</v>
       </c>
       <c r="M115">
         <v>6.2275</v>
@@ -7393,19 +7396,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7422,19 +7425,19 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116">
         <v>2700</v>
       </c>
       <c r="G116">
-        <v>8346.144637450159</v>
+        <v>6867.39926115343</v>
       </c>
       <c r="H116">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I116">
-        <v>50650</v>
+        <v>30700</v>
       </c>
       <c r="J116">
         <v>87.719298245614</v>
@@ -7443,13 +7446,13 @@
         <v>91.2280701754386</v>
       </c>
       <c r="L116">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M116">
         <v>9862</v>
       </c>
       <c r="N116">
-        <v>18970.51109</v>
+        <v>14081.88517</v>
       </c>
       <c r="O116">
         <v>1805181.656</v>
@@ -7458,19 +7461,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7487,19 +7490,19 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>2700</v>
       </c>
       <c r="G117">
-        <v>8346.144637450159</v>
+        <v>6867.39926115343</v>
       </c>
       <c r="H117">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I117">
-        <v>50650</v>
+        <v>30700</v>
       </c>
       <c r="J117">
         <v>87.719298245614</v>
@@ -7508,13 +7511,13 @@
         <v>91.2280701754386</v>
       </c>
       <c r="L117">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M117">
         <v>9862</v>
       </c>
       <c r="N117">
-        <v>18970.51109</v>
+        <v>14081.88517</v>
       </c>
       <c r="O117">
         <v>1805181.656</v>
@@ -7523,19 +7526,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7552,19 +7555,19 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118">
         <v>2700</v>
       </c>
       <c r="G118">
-        <v>8346.144637450159</v>
+        <v>6867.39926115343</v>
       </c>
       <c r="H118">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I118">
-        <v>50650</v>
+        <v>30700</v>
       </c>
       <c r="J118">
         <v>87.719298245614</v>
@@ -7573,13 +7576,13 @@
         <v>91.2280701754386</v>
       </c>
       <c r="L118">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M118">
         <v>9862</v>
       </c>
       <c r="N118">
-        <v>18970.51109</v>
+        <v>14081.88517</v>
       </c>
       <c r="O118">
         <v>1805181.656</v>
@@ -7588,19 +7591,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7617,19 +7620,19 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119">
         <v>2700</v>
       </c>
       <c r="G119">
-        <v>8346.144637450159</v>
+        <v>6867.39926115343</v>
       </c>
       <c r="H119">
-        <v>108959.970853049</v>
+        <v>78327.3363431318</v>
       </c>
       <c r="I119">
-        <v>50650</v>
+        <v>30700</v>
       </c>
       <c r="J119">
         <v>87.719298245614</v>
@@ -7638,13 +7641,13 @@
         <v>91.2280701754386</v>
       </c>
       <c r="L119">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M119">
         <v>9862</v>
       </c>
       <c r="N119">
-        <v>18970.51109</v>
+        <v>14081.88517</v>
       </c>
       <c r="O119">
         <v>1805181.656</v>
@@ -7653,19 +7656,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7682,7 +7685,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120">
         <v>4.58358</v>
@@ -7712,19 +7715,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7741,7 +7744,7 @@
         <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>4.58358</v>
@@ -7771,19 +7774,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7800,13 +7803,13 @@
         <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122">
         <v>0.213</v>
       </c>
       <c r="G122">
-        <v>0.452465745979706</v>
+        <v>0.452461578344518</v>
       </c>
       <c r="H122">
         <v>3.89</v>
@@ -7815,7 +7818,7 @@
         <v>1.567</v>
       </c>
       <c r="L122">
-        <v>0.061</v>
+        <v>0.124</v>
       </c>
       <c r="M122">
         <v>0.76924</v>
@@ -7830,19 +7833,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7859,13 +7862,13 @@
         <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F123">
         <v>0.213</v>
       </c>
       <c r="G123">
-        <v>0.452465745979706</v>
+        <v>0.452461578344518</v>
       </c>
       <c r="H123">
         <v>3.89</v>
@@ -7874,7 +7877,7 @@
         <v>1.567</v>
       </c>
       <c r="L123">
-        <v>0.061</v>
+        <v>0.124</v>
       </c>
       <c r="M123">
         <v>0.76924</v>
@@ -7889,19 +7892,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7915,7 +7918,7 @@
         <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124">
         <v>9.720000000000001</v>
@@ -7930,7 +7933,7 @@
         <v>28.5695</v>
       </c>
       <c r="L124">
-        <v>16.12</v>
+        <v>15.58</v>
       </c>
       <c r="M124">
         <v>23.9887</v>
@@ -7945,19 +7948,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7971,7 +7974,7 @@
         <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F125">
         <v>9.720000000000001</v>
@@ -7986,7 +7989,7 @@
         <v>28.5695</v>
       </c>
       <c r="L125">
-        <v>16.12</v>
+        <v>15.58</v>
       </c>
       <c r="M125">
         <v>23.9887</v>
@@ -8001,19 +8004,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8027,7 +8030,7 @@
         <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126">
         <v>15.4</v>
@@ -8042,7 +8045,7 @@
         <v>42.225</v>
       </c>
       <c r="L126">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="M126">
         <v>35.081</v>
@@ -8057,19 +8060,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8083,7 +8086,7 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F127">
         <v>15.4</v>
@@ -8098,7 +8101,7 @@
         <v>42.225</v>
       </c>
       <c r="L127">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="M127">
         <v>35.081</v>
@@ -8113,19 +8116,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8139,7 +8142,7 @@
         <v>50</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F128">
         <v>2.6</v>
@@ -8154,7 +8157,7 @@
         <v>9.486499999999999</v>
       </c>
       <c r="L128">
-        <v>7.87</v>
+        <v>6.94</v>
       </c>
       <c r="M128">
         <v>8.417199999999999</v>
@@ -8169,19 +8172,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8195,7 +8198,7 @@
         <v>50</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129">
         <v>2.6</v>
@@ -8210,7 +8213,7 @@
         <v>9.486499999999999</v>
       </c>
       <c r="L129">
-        <v>7.87</v>
+        <v>6.94</v>
       </c>
       <c r="M129">
         <v>8.417199999999999</v>
@@ -8225,19 +8228,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8254,7 +8257,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F130">
         <v>1.245</v>
@@ -8269,7 +8272,7 @@
         <v>6.556</v>
       </c>
       <c r="L130">
-        <v>4.56</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
         <v>4.998</v>
@@ -8284,19 +8287,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8313,7 +8316,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F131">
         <v>1.245</v>
@@ -8328,7 +8331,7 @@
         <v>6.556</v>
       </c>
       <c r="L131">
-        <v>4.56</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
         <v>4.998</v>
@@ -8343,19 +8346,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8372,19 +8375,19 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F132">
         <v>2400</v>
       </c>
       <c r="G132">
-        <v>5568.31987928907</v>
+        <v>4574.69299152989</v>
       </c>
       <c r="H132">
-        <v>59004.961474412</v>
+        <v>37000</v>
       </c>
       <c r="I132">
-        <v>18901.70362</v>
+        <v>14069.68951</v>
       </c>
       <c r="J132">
         <v>85.1851851851852</v>
@@ -8393,13 +8396,13 @@
         <v>90.7407407407407</v>
       </c>
       <c r="L132">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="M132">
         <v>9700</v>
       </c>
       <c r="N132">
-        <v>14811.53326</v>
+        <v>11871.07695</v>
       </c>
       <c r="O132">
         <v>1805181.656</v>
@@ -8408,19 +8411,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8437,19 +8440,19 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F133">
         <v>2400</v>
       </c>
       <c r="G133">
-        <v>5568.31987928907</v>
+        <v>4574.69299152989</v>
       </c>
       <c r="H133">
-        <v>59004.961474412</v>
+        <v>37000</v>
       </c>
       <c r="I133">
-        <v>18901.70362</v>
+        <v>14069.68951</v>
       </c>
       <c r="J133">
         <v>85.1851851851852</v>
@@ -8458,13 +8461,13 @@
         <v>90.7407407407407</v>
       </c>
       <c r="L133">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="M133">
         <v>9700</v>
       </c>
       <c r="N133">
-        <v>14811.53326</v>
+        <v>11871.07695</v>
       </c>
       <c r="O133">
         <v>1805181.656</v>
@@ -8473,19 +8476,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8502,19 +8505,19 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134">
         <v>2400</v>
       </c>
       <c r="G134">
-        <v>5568.31987928907</v>
+        <v>4574.69299152989</v>
       </c>
       <c r="H134">
-        <v>59004.961474412</v>
+        <v>37000</v>
       </c>
       <c r="I134">
-        <v>18901.70362</v>
+        <v>14069.68951</v>
       </c>
       <c r="J134">
         <v>85.1851851851852</v>
@@ -8523,13 +8526,13 @@
         <v>90.7407407407407</v>
       </c>
       <c r="L134">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="M134">
         <v>9700</v>
       </c>
       <c r="N134">
-        <v>14811.53326</v>
+        <v>11871.07695</v>
       </c>
       <c r="O134">
         <v>1805181.656</v>
@@ -8538,19 +8541,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8567,19 +8570,19 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F135">
         <v>2400</v>
       </c>
       <c r="G135">
-        <v>5568.31987928907</v>
+        <v>4574.69299152989</v>
       </c>
       <c r="H135">
-        <v>59004.961474412</v>
+        <v>37000</v>
       </c>
       <c r="I135">
-        <v>18901.70362</v>
+        <v>14069.68951</v>
       </c>
       <c r="J135">
         <v>85.1851851851852</v>
@@ -8588,13 +8591,13 @@
         <v>90.7407407407407</v>
       </c>
       <c r="L135">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="M135">
         <v>9700</v>
       </c>
       <c r="N135">
-        <v>14811.53326</v>
+        <v>11871.07695</v>
       </c>
       <c r="O135">
         <v>1805181.656</v>
@@ -8603,19 +8606,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8632,7 +8635,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F136">
         <v>4.09214</v>
@@ -8647,7 +8650,7 @@
         <v>22.50279</v>
       </c>
       <c r="L136">
-        <v>6.75641</v>
+        <v>5.66735</v>
       </c>
       <c r="M136">
         <v>11.77282</v>
@@ -8662,19 +8665,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8691,7 +8694,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137">
         <v>4.09214</v>
@@ -8706,7 +8709,7 @@
         <v>22.50279</v>
       </c>
       <c r="L137">
-        <v>6.75641</v>
+        <v>5.66735</v>
       </c>
       <c r="M137">
         <v>11.77282</v>
@@ -8721,19 +8724,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8750,13 +8753,13 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138">
         <v>0.205</v>
       </c>
       <c r="G138">
-        <v>0.436250880015615</v>
+        <v>0.436246480845139</v>
       </c>
       <c r="H138">
         <v>3.89</v>
@@ -8765,7 +8768,7 @@
         <v>1.594</v>
       </c>
       <c r="L138">
-        <v>0.05</v>
+        <v>0.0655</v>
       </c>
       <c r="M138">
         <v>0.70516</v>
@@ -8780,19 +8783,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8809,13 +8812,13 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F139">
         <v>0.205</v>
       </c>
       <c r="G139">
-        <v>0.436250880015615</v>
+        <v>0.436246480845139</v>
       </c>
       <c r="H139">
         <v>3.89</v>
@@ -8824,7 +8827,7 @@
         <v>1.594</v>
       </c>
       <c r="L139">
-        <v>0.05</v>
+        <v>0.0655</v>
       </c>
       <c r="M139">
         <v>0.70516</v>
@@ -8839,19 +8842,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8865,7 +8868,7 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F140">
         <v>8.805</v>
@@ -8880,7 +8883,7 @@
         <v>28.724</v>
       </c>
       <c r="L140">
-        <v>14.66</v>
+        <v>13.31</v>
       </c>
       <c r="M140">
         <v>22.65196</v>
@@ -8895,19 +8898,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8921,7 +8924,7 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F141">
         <v>8.805</v>
@@ -8936,7 +8939,7 @@
         <v>28.724</v>
       </c>
       <c r="L141">
-        <v>14.66</v>
+        <v>13.31</v>
       </c>
       <c r="M141">
         <v>22.65196</v>
@@ -8951,19 +8954,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8977,7 +8980,7 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F142">
         <v>12.1</v>
@@ -8992,7 +8995,7 @@
         <v>39.22</v>
       </c>
       <c r="L142">
-        <v>26</v>
+        <v>18.65</v>
       </c>
       <c r="M142">
         <v>34.592</v>
@@ -9007,19 +9010,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9033,7 +9036,7 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F143">
         <v>12.1</v>
@@ -9048,7 +9051,7 @@
         <v>39.22</v>
       </c>
       <c r="L143">
-        <v>26</v>
+        <v>18.65</v>
       </c>
       <c r="M143">
         <v>34.592</v>
@@ -9063,19 +9066,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9089,7 +9092,7 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F144">
         <v>2.12</v>
@@ -9104,7 +9107,7 @@
         <v>9.144</v>
       </c>
       <c r="L144">
-        <v>7.24</v>
+        <v>4.925</v>
       </c>
       <c r="M144">
         <v>7.9276</v>
@@ -9119,19 +9122,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9145,7 +9148,7 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
         <v>2.12</v>
@@ -9160,7 +9163,7 @@
         <v>9.144</v>
       </c>
       <c r="L145">
-        <v>7.24</v>
+        <v>4.925</v>
       </c>
       <c r="M145">
         <v>7.9276</v>
@@ -9175,19 +9178,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9204,7 +9207,7 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146">
         <v>1.26</v>
@@ -9219,7 +9222,7 @@
         <v>6.574</v>
       </c>
       <c r="L146">
-        <v>3.14</v>
+        <v>2.515</v>
       </c>
       <c r="M146">
         <v>4.8607</v>
@@ -9234,19 +9237,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9263,7 +9266,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147">
         <v>1.26</v>
@@ -9278,7 +9281,7 @@
         <v>6.574</v>
       </c>
       <c r="L147">
-        <v>3.14</v>
+        <v>2.515</v>
       </c>
       <c r="M147">
         <v>4.8607</v>
@@ -9293,19 +9296,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9322,19 +9325,19 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F148">
         <v>2700</v>
       </c>
       <c r="G148">
-        <v>5860.39779828416</v>
+        <v>5454.27481878299</v>
       </c>
       <c r="H148">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I148">
-        <v>18975.42591</v>
+        <v>18754.35559</v>
       </c>
       <c r="J148">
         <v>82.35294117647059</v>
@@ -9343,13 +9346,13 @@
         <v>92.156862745098</v>
       </c>
       <c r="L148">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="M148">
         <v>9700</v>
       </c>
       <c r="N148">
-        <v>15893.57761</v>
+        <v>14036.58699</v>
       </c>
       <c r="O148">
         <v>1805181.656</v>
@@ -9358,19 +9361,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9387,19 +9390,19 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F149">
         <v>2700</v>
       </c>
       <c r="G149">
-        <v>5860.39779828416</v>
+        <v>5454.27481878299</v>
       </c>
       <c r="H149">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I149">
-        <v>18975.42591</v>
+        <v>18754.35559</v>
       </c>
       <c r="J149">
         <v>82.35294117647059</v>
@@ -9408,13 +9411,13 @@
         <v>92.156862745098</v>
       </c>
       <c r="L149">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="M149">
         <v>9700</v>
       </c>
       <c r="N149">
-        <v>15893.57761</v>
+        <v>14036.58699</v>
       </c>
       <c r="O149">
         <v>1805181.656</v>
@@ -9423,19 +9426,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9452,19 +9455,19 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>2700</v>
       </c>
       <c r="G150">
-        <v>5860.39779828416</v>
+        <v>5454.27481878299</v>
       </c>
       <c r="H150">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I150">
-        <v>18975.42591</v>
+        <v>18754.35559</v>
       </c>
       <c r="J150">
         <v>82.35294117647059</v>
@@ -9473,13 +9476,13 @@
         <v>92.156862745098</v>
       </c>
       <c r="L150">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="M150">
         <v>9700</v>
       </c>
       <c r="N150">
-        <v>15893.57761</v>
+        <v>14036.58699</v>
       </c>
       <c r="O150">
         <v>1805181.656</v>
@@ -9488,19 +9491,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9517,19 +9520,19 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F151">
         <v>2700</v>
       </c>
       <c r="G151">
-        <v>5860.39779828416</v>
+        <v>5454.27481878299</v>
       </c>
       <c r="H151">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I151">
-        <v>18975.42591</v>
+        <v>18754.35559</v>
       </c>
       <c r="J151">
         <v>82.35294117647059</v>
@@ -9538,13 +9541,13 @@
         <v>92.156862745098</v>
       </c>
       <c r="L151">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="M151">
         <v>9700</v>
       </c>
       <c r="N151">
-        <v>15893.57761</v>
+        <v>14036.58699</v>
       </c>
       <c r="O151">
         <v>1805181.656</v>
@@ -9553,19 +9556,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U151" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9582,7 +9585,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152">
         <v>3.75626</v>
@@ -9597,7 +9600,7 @@
         <v>22.94672</v>
       </c>
       <c r="L152">
-        <v>4.63595</v>
+        <v>4.60248</v>
       </c>
       <c r="M152">
         <v>12.37068</v>
@@ -9612,19 +9615,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U152" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9641,7 +9644,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>3.75626</v>
@@ -9656,7 +9659,7 @@
         <v>22.94672</v>
       </c>
       <c r="L153">
-        <v>4.63595</v>
+        <v>4.60248</v>
       </c>
       <c r="M153">
         <v>12.37068</v>
@@ -9671,19 +9674,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U153" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9700,13 +9703,13 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F154">
         <v>0.191</v>
       </c>
       <c r="G154">
-        <v>0.445795049428298</v>
+        <v>0.445790391483089</v>
       </c>
       <c r="H154">
         <v>3.89</v>
@@ -9730,19 +9733,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U154" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9759,13 +9762,13 @@
         <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F155">
         <v>0.191</v>
       </c>
       <c r="G155">
-        <v>0.445795049428298</v>
+        <v>0.445790391483089</v>
       </c>
       <c r="H155">
         <v>3.89</v>
@@ -9789,19 +9792,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U155" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9815,7 +9818,7 @@
         <v>52</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F156">
         <v>8.31</v>
@@ -9830,7 +9833,7 @@
         <v>28.8785</v>
       </c>
       <c r="L156">
-        <v>12.92</v>
+        <v>11.41</v>
       </c>
       <c r="M156">
         <v>21.85301</v>
@@ -9845,19 +9848,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U156" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9871,7 +9874,7 @@
         <v>52</v>
       </c>
       <c r="E157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F157">
         <v>8.31</v>
@@ -9886,7 +9889,7 @@
         <v>28.8785</v>
       </c>
       <c r="L157">
-        <v>12.92</v>
+        <v>11.41</v>
       </c>
       <c r="M157">
         <v>21.85301</v>
@@ -9901,19 +9904,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U157" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9927,7 +9930,7 @@
         <v>52</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F158">
         <v>11.4</v>
@@ -9942,7 +9945,7 @@
         <v>39.28</v>
       </c>
       <c r="L158">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="M158">
         <v>32.192</v>
@@ -9957,19 +9960,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9983,7 +9986,7 @@
         <v>52</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F159">
         <v>11.4</v>
@@ -9998,7 +10001,7 @@
         <v>39.28</v>
       </c>
       <c r="L159">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="M159">
         <v>32.192</v>
@@ -10013,19 +10016,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10039,7 +10042,7 @@
         <v>52</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F160">
         <v>2.45</v>
@@ -10054,7 +10057,7 @@
         <v>9.1485</v>
       </c>
       <c r="L160">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="M160">
         <v>7.4226</v>
@@ -10069,19 +10072,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10095,7 +10098,7 @@
         <v>52</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F161">
         <v>2.45</v>
@@ -10110,7 +10113,7 @@
         <v>9.1485</v>
       </c>
       <c r="L161">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="M161">
         <v>7.4226</v>
@@ -10125,19 +10128,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10154,7 +10157,7 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F162">
         <v>0.93</v>
@@ -10169,7 +10172,7 @@
         <v>5.754</v>
       </c>
       <c r="L162">
-        <v>2.19</v>
+        <v>1.905</v>
       </c>
       <c r="M162">
         <v>4.1056</v>
@@ -10184,19 +10187,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10213,7 +10216,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F163">
         <v>0.93</v>
@@ -10228,7 +10231,7 @@
         <v>5.754</v>
       </c>
       <c r="L163">
-        <v>2.19</v>
+        <v>1.905</v>
       </c>
       <c r="M163">
         <v>4.1056</v>
@@ -10243,19 +10246,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10272,19 +10275,19 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F164">
-        <v>1593.5</v>
+        <v>1593.6</v>
       </c>
       <c r="G164">
-        <v>4918.48899616736</v>
+        <v>4503.71866267273</v>
       </c>
       <c r="H164">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I164">
-        <v>22206.81449</v>
+        <v>18669.68951</v>
       </c>
       <c r="J164">
         <v>73.9130434782609</v>
@@ -10293,13 +10296,13 @@
         <v>86.95652173913039</v>
       </c>
       <c r="L164">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="M164">
         <v>6040</v>
       </c>
       <c r="N164">
-        <v>11187.49167</v>
+        <v>11097.07695</v>
       </c>
       <c r="O164">
         <v>1805181.656</v>
@@ -10308,19 +10311,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10337,19 +10340,19 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F165">
-        <v>1593.5</v>
+        <v>1593.6</v>
       </c>
       <c r="G165">
-        <v>4918.48899616736</v>
+        <v>4503.71866267273</v>
       </c>
       <c r="H165">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I165">
-        <v>22206.81449</v>
+        <v>18669.68951</v>
       </c>
       <c r="J165">
         <v>73.9130434782609</v>
@@ -10358,13 +10361,13 @@
         <v>86.95652173913039</v>
       </c>
       <c r="L165">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="M165">
         <v>6040</v>
       </c>
       <c r="N165">
-        <v>11187.49167</v>
+        <v>11097.07695</v>
       </c>
       <c r="O165">
         <v>1805181.656</v>
@@ -10373,19 +10376,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10402,19 +10405,19 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F166">
-        <v>1593.5</v>
+        <v>1593.6</v>
       </c>
       <c r="G166">
-        <v>4918.48899616736</v>
+        <v>4503.71866267273</v>
       </c>
       <c r="H166">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I166">
-        <v>22206.81449</v>
+        <v>18669.68951</v>
       </c>
       <c r="J166">
         <v>73.9130434782609</v>
@@ -10423,13 +10426,13 @@
         <v>86.95652173913039</v>
       </c>
       <c r="L166">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="M166">
         <v>6040</v>
       </c>
       <c r="N166">
-        <v>11187.49167</v>
+        <v>11097.07695</v>
       </c>
       <c r="O166">
         <v>1805181.656</v>
@@ -10438,19 +10441,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10467,19 +10470,19 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F167">
-        <v>1593.5</v>
+        <v>1593.6</v>
       </c>
       <c r="G167">
-        <v>4918.48899616736</v>
+        <v>4503.71866267273</v>
       </c>
       <c r="H167">
-        <v>59004.961474412</v>
+        <v>44458.3942153188</v>
       </c>
       <c r="I167">
-        <v>22206.81449</v>
+        <v>18669.68951</v>
       </c>
       <c r="J167">
         <v>73.9130434782609</v>
@@ -10488,13 +10491,13 @@
         <v>86.95652173913039</v>
       </c>
       <c r="L167">
-        <v>1900</v>
+        <v>1750</v>
       </c>
       <c r="M167">
         <v>6040</v>
       </c>
       <c r="N167">
-        <v>11187.49167</v>
+        <v>11097.07695</v>
       </c>
       <c r="O167">
         <v>1805181.656</v>
@@ -10503,19 +10506,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10532,7 +10535,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F168">
         <v>2.30782</v>
@@ -10547,7 +10550,7 @@
         <v>23.53863</v>
       </c>
       <c r="L168">
-        <v>3.64094</v>
+        <v>3.32835</v>
       </c>
       <c r="M168">
         <v>10.42493</v>
@@ -10562,19 +10565,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10591,7 +10594,7 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F169">
         <v>2.30782</v>
@@ -10606,7 +10609,7 @@
         <v>23.53863</v>
       </c>
       <c r="L169">
-        <v>3.64094</v>
+        <v>3.32835</v>
       </c>
       <c r="M169">
         <v>10.42493</v>
@@ -10621,19 +10624,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U169" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10650,13 +10653,13 @@
         <v>53</v>
       </c>
       <c r="E170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F170">
         <v>0.2185</v>
       </c>
       <c r="G170">
-        <v>0.491429691624456</v>
+        <v>0.491424795146132</v>
       </c>
       <c r="H170">
         <v>3.89</v>
@@ -10665,7 +10668,7 @@
         <v>1.87</v>
       </c>
       <c r="L170">
-        <v>0.122</v>
+        <v>0.066</v>
       </c>
       <c r="M170">
         <v>0.74868</v>
@@ -10680,19 +10683,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U170" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10709,13 +10712,13 @@
         <v>53</v>
       </c>
       <c r="E171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F171">
         <v>0.2185</v>
       </c>
       <c r="G171">
-        <v>0.491429691624456</v>
+        <v>0.491424795146132</v>
       </c>
       <c r="H171">
         <v>3.89</v>
@@ -10724,7 +10727,7 @@
         <v>1.87</v>
       </c>
       <c r="L171">
-        <v>0.122</v>
+        <v>0.066</v>
       </c>
       <c r="M171">
         <v>0.74868</v>
@@ -10739,19 +10742,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U171" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10765,7 +10768,7 @@
         <v>53</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F172">
         <v>6.0285</v>
@@ -10780,7 +10783,7 @@
         <v>29.54</v>
       </c>
       <c r="L172">
-        <v>10.42</v>
+        <v>9.44</v>
       </c>
       <c r="M172">
         <v>13.8732</v>
@@ -10795,19 +10798,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10821,7 +10824,7 @@
         <v>53</v>
       </c>
       <c r="E173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F173">
         <v>6.0285</v>
@@ -10836,7 +10839,7 @@
         <v>29.54</v>
       </c>
       <c r="L173">
-        <v>10.42</v>
+        <v>9.44</v>
       </c>
       <c r="M173">
         <v>13.8732</v>
@@ -10851,19 +10854,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U173" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10877,7 +10880,7 @@
         <v>53</v>
       </c>
       <c r="E174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F174">
         <v>8.369999999999999</v>
@@ -10892,7 +10895,7 @@
         <v>40.2</v>
       </c>
       <c r="L174">
-        <v>16.4</v>
+        <v>13.3</v>
       </c>
       <c r="M174">
         <v>20.304</v>
@@ -10907,19 +10910,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10933,7 +10936,7 @@
         <v>53</v>
       </c>
       <c r="E175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F175">
         <v>8.369999999999999</v>
@@ -10948,7 +10951,7 @@
         <v>40.2</v>
       </c>
       <c r="L175">
-        <v>16.4</v>
+        <v>13.3</v>
       </c>
       <c r="M175">
         <v>20.304</v>
@@ -10963,19 +10966,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -10989,7 +10992,7 @@
         <v>53</v>
       </c>
       <c r="E176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F176">
         <v>1.765</v>
@@ -11004,7 +11007,7 @@
         <v>9.125999999999999</v>
       </c>
       <c r="L176">
-        <v>3.485</v>
+        <v>2.845</v>
       </c>
       <c r="M176">
         <v>5.4356</v>
@@ -11019,19 +11022,19 @@
         <v>5545497.329</v>
       </c>
       <c r="Q176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11045,7 +11048,7 @@
         <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F177">
         <v>1.765</v>
@@ -11060,7 +11063,7 @@
         <v>9.125999999999999</v>
       </c>
       <c r="L177">
-        <v>3.485</v>
+        <v>2.845</v>
       </c>
       <c r="M177">
         <v>5.4356</v>
@@ -11075,19 +11078,969 @@
         <v>5545497.329</v>
       </c>
       <c r="Q177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" t="s">
+        <v>38</v>
+      </c>
+      <c r="D178" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G178">
+        <v>1.12353846153846</v>
+      </c>
+      <c r="H178">
+        <v>4.62</v>
+      </c>
+      <c r="I178">
+        <v>3.921</v>
+      </c>
+      <c r="L178">
+        <v>1.31</v>
+      </c>
+      <c r="M178">
+        <v>2.0887</v>
+      </c>
+      <c r="N178">
+        <v>3.016</v>
+      </c>
+      <c r="O178">
+        <v>1805181.656</v>
+      </c>
+      <c r="P178">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>56</v>
+      </c>
+      <c r="R178" t="s">
+        <v>57</v>
+      </c>
+      <c r="S178" t="s">
+        <v>58</v>
+      </c>
+      <c r="T178" t="s">
+        <v>59</v>
+      </c>
+      <c r="U178" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G179">
+        <v>1.12353846153846</v>
+      </c>
+      <c r="H179">
+        <v>4.62</v>
+      </c>
+      <c r="I179">
+        <v>3.921</v>
+      </c>
+      <c r="L179">
+        <v>1.31</v>
+      </c>
+      <c r="M179">
+        <v>2.0887</v>
+      </c>
+      <c r="N179">
+        <v>3.016</v>
+      </c>
+      <c r="O179">
+        <v>1805181.656</v>
+      </c>
+      <c r="P179">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>56</v>
+      </c>
+      <c r="R179" t="s">
+        <v>57</v>
+      </c>
+      <c r="S179" t="s">
+        <v>58</v>
+      </c>
+      <c r="T179" t="s">
+        <v>59</v>
+      </c>
+      <c r="U179" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E180" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180">
+        <v>770</v>
+      </c>
+      <c r="G180">
+        <v>2726.00497987997</v>
+      </c>
+      <c r="H180">
+        <v>44458.3942153188</v>
+      </c>
+      <c r="I180">
+        <v>6910</v>
+      </c>
+      <c r="J180">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="K180">
+        <v>82.0512820512821</v>
+      </c>
+      <c r="L180">
+        <v>1200</v>
+      </c>
+      <c r="M180">
+        <v>3659.384</v>
+      </c>
+      <c r="N180">
+        <v>5700</v>
+      </c>
+      <c r="O180">
+        <v>1805181.656</v>
+      </c>
+      <c r="P180">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>57</v>
+      </c>
+      <c r="S180" t="s">
+        <v>58</v>
+      </c>
+      <c r="T180" t="s">
+        <v>59</v>
+      </c>
+      <c r="U180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" t="s">
+        <v>54</v>
+      </c>
+      <c r="E181" t="s">
+        <v>55</v>
+      </c>
+      <c r="F181">
+        <v>770</v>
+      </c>
+      <c r="G181">
+        <v>2726.00497987997</v>
+      </c>
+      <c r="H181">
+        <v>44458.3942153188</v>
+      </c>
+      <c r="I181">
+        <v>6910</v>
+      </c>
+      <c r="J181">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="K181">
+        <v>82.0512820512821</v>
+      </c>
+      <c r="L181">
+        <v>1200</v>
+      </c>
+      <c r="M181">
+        <v>3659.384</v>
+      </c>
+      <c r="N181">
+        <v>5700</v>
+      </c>
+      <c r="O181">
+        <v>1805181.656</v>
+      </c>
+      <c r="P181">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>57</v>
+      </c>
+      <c r="S181" t="s">
+        <v>58</v>
+      </c>
+      <c r="T181" t="s">
+        <v>59</v>
+      </c>
+      <c r="U181" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182">
+        <v>770</v>
+      </c>
+      <c r="G182">
+        <v>2726.00497987997</v>
+      </c>
+      <c r="H182">
+        <v>44458.3942153188</v>
+      </c>
+      <c r="I182">
+        <v>6910</v>
+      </c>
+      <c r="J182">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="K182">
+        <v>82.0512820512821</v>
+      </c>
+      <c r="L182">
+        <v>1200</v>
+      </c>
+      <c r="M182">
+        <v>3659.384</v>
+      </c>
+      <c r="N182">
+        <v>5700</v>
+      </c>
+      <c r="O182">
+        <v>1805181.656</v>
+      </c>
+      <c r="P182">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>57</v>
+      </c>
+      <c r="S182" t="s">
+        <v>58</v>
+      </c>
+      <c r="T182" t="s">
+        <v>59</v>
+      </c>
+      <c r="U182" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E183" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183">
+        <v>770</v>
+      </c>
+      <c r="G183">
+        <v>2726.00497987997</v>
+      </c>
+      <c r="H183">
+        <v>44458.3942153188</v>
+      </c>
+      <c r="I183">
+        <v>6910</v>
+      </c>
+      <c r="J183">
+        <v>64.1025641025641</v>
+      </c>
+      <c r="K183">
+        <v>82.0512820512821</v>
+      </c>
+      <c r="L183">
+        <v>1200</v>
+      </c>
+      <c r="M183">
+        <v>3659.384</v>
+      </c>
+      <c r="N183">
+        <v>5700</v>
+      </c>
+      <c r="O183">
+        <v>1805181.656</v>
+      </c>
+      <c r="P183">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="S183" t="s">
+        <v>58</v>
+      </c>
+      <c r="T183" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184">
+        <v>1.74825</v>
+      </c>
+      <c r="G184">
+        <v>2.34050790171738</v>
+      </c>
+      <c r="H184">
+        <v>11.3742446100713</v>
+      </c>
+      <c r="I184">
+        <v>4.98734</v>
+      </c>
+      <c r="L184">
+        <v>2.12944</v>
+      </c>
+      <c r="M184">
+        <v>4.20599</v>
+      </c>
+      <c r="N184">
+        <v>4.83423</v>
+      </c>
+      <c r="O184">
+        <v>1805181.656</v>
+      </c>
+      <c r="P184">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>57</v>
+      </c>
+      <c r="S184" t="s">
+        <v>58</v>
+      </c>
+      <c r="T184" t="s">
+        <v>59</v>
+      </c>
+      <c r="U184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185">
+        <v>1.74825</v>
+      </c>
+      <c r="G185">
+        <v>2.34050790171738</v>
+      </c>
+      <c r="H185">
+        <v>11.3742446100713</v>
+      </c>
+      <c r="I185">
+        <v>4.98734</v>
+      </c>
+      <c r="L185">
+        <v>2.12944</v>
+      </c>
+      <c r="M185">
+        <v>4.20599</v>
+      </c>
+      <c r="N185">
+        <v>4.83423</v>
+      </c>
+      <c r="O185">
+        <v>1805181.656</v>
+      </c>
+      <c r="P185">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>57</v>
+      </c>
+      <c r="S185" t="s">
+        <v>58</v>
+      </c>
+      <c r="T185" t="s">
+        <v>59</v>
+      </c>
+      <c r="U185" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>54</v>
+      </c>
+      <c r="E186" t="s">
+        <v>55</v>
+      </c>
+      <c r="F186">
+        <v>0.22</v>
+      </c>
+      <c r="G186">
+        <v>0.5260315541303729</v>
+      </c>
+      <c r="H186">
+        <v>3.89</v>
+      </c>
+      <c r="I186">
+        <v>2.605</v>
+      </c>
+      <c r="L186">
+        <v>0.047</v>
+      </c>
+      <c r="M186">
+        <v>0.74887</v>
+      </c>
+      <c r="N186">
+        <v>1.7844</v>
+      </c>
+      <c r="O186">
+        <v>1805181.656</v>
+      </c>
+      <c r="P186">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>56</v>
+      </c>
+      <c r="R186" t="s">
+        <v>57</v>
+      </c>
+      <c r="S186" t="s">
+        <v>58</v>
+      </c>
+      <c r="T186" t="s">
+        <v>59</v>
+      </c>
+      <c r="U186" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" t="s">
+        <v>54</v>
+      </c>
+      <c r="E187" t="s">
+        <v>55</v>
+      </c>
+      <c r="F187">
+        <v>0.22</v>
+      </c>
+      <c r="G187">
+        <v>0.5260315541303729</v>
+      </c>
+      <c r="H187">
+        <v>3.89</v>
+      </c>
+      <c r="I187">
+        <v>2.605</v>
+      </c>
+      <c r="L187">
+        <v>0.047</v>
+      </c>
+      <c r="M187">
+        <v>0.74887</v>
+      </c>
+      <c r="N187">
+        <v>1.7844</v>
+      </c>
+      <c r="O187">
+        <v>1805181.656</v>
+      </c>
+      <c r="P187">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>56</v>
+      </c>
+      <c r="R187" t="s">
+        <v>57</v>
+      </c>
+      <c r="S187" t="s">
+        <v>58</v>
+      </c>
+      <c r="T187" t="s">
+        <v>59</v>
+      </c>
+      <c r="U187" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>54</v>
+      </c>
+      <c r="E188" t="s">
+        <v>55</v>
+      </c>
+      <c r="F188">
+        <v>4.772</v>
+      </c>
+      <c r="G188">
+        <v>6.52271794871795</v>
+      </c>
+      <c r="H188">
+        <v>31.98</v>
+      </c>
+      <c r="I188">
+        <v>13.8095</v>
+      </c>
+      <c r="L188">
+        <v>5.587</v>
+      </c>
+      <c r="M188">
+        <v>11.342</v>
+      </c>
+      <c r="N188">
+        <v>13.1556</v>
+      </c>
+      <c r="O188">
+        <v>1805181.656</v>
+      </c>
+      <c r="P188">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>56</v>
+      </c>
+      <c r="R188" t="s">
+        <v>57</v>
+      </c>
+      <c r="S188" t="s">
+        <v>58</v>
+      </c>
+      <c r="T188" t="s">
+        <v>59</v>
+      </c>
+      <c r="U188" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" t="s">
+        <v>55</v>
+      </c>
+      <c r="F189">
+        <v>4.772</v>
+      </c>
+      <c r="G189">
+        <v>6.52271794871795</v>
+      </c>
+      <c r="H189">
+        <v>31.98</v>
+      </c>
+      <c r="I189">
+        <v>13.8095</v>
+      </c>
+      <c r="L189">
+        <v>5.587</v>
+      </c>
+      <c r="M189">
+        <v>11.342</v>
+      </c>
+      <c r="N189">
+        <v>13.1556</v>
+      </c>
+      <c r="O189">
+        <v>1805181.656</v>
+      </c>
+      <c r="P189">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>56</v>
+      </c>
+      <c r="R189" t="s">
+        <v>57</v>
+      </c>
+      <c r="S189" t="s">
+        <v>58</v>
+      </c>
+      <c r="T189" t="s">
+        <v>59</v>
+      </c>
+      <c r="U189" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" t="s">
+        <v>54</v>
+      </c>
+      <c r="E190" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190">
+        <v>7.44</v>
+      </c>
+      <c r="G190">
+        <v>9.319230769230771</v>
+      </c>
+      <c r="H190">
+        <v>38.9</v>
+      </c>
+      <c r="I190">
+        <v>18.175</v>
+      </c>
+      <c r="L190">
+        <v>7.85</v>
+      </c>
+      <c r="M190">
+        <v>16.157</v>
+      </c>
+      <c r="N190">
+        <v>17.528</v>
+      </c>
+      <c r="O190">
+        <v>1805181.656</v>
+      </c>
+      <c r="P190">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>56</v>
+      </c>
+      <c r="R190" t="s">
+        <v>57</v>
+      </c>
+      <c r="S190" t="s">
+        <v>58</v>
+      </c>
+      <c r="T190" t="s">
+        <v>59</v>
+      </c>
+      <c r="U190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>35</v>
+      </c>
+      <c r="D191" t="s">
+        <v>54</v>
+      </c>
+      <c r="E191" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191">
+        <v>7.44</v>
+      </c>
+      <c r="G191">
+        <v>9.319230769230771</v>
+      </c>
+      <c r="H191">
+        <v>38.9</v>
+      </c>
+      <c r="I191">
+        <v>18.175</v>
+      </c>
+      <c r="L191">
+        <v>7.85</v>
+      </c>
+      <c r="M191">
+        <v>16.157</v>
+      </c>
+      <c r="N191">
+        <v>17.528</v>
+      </c>
+      <c r="O191">
+        <v>1805181.656</v>
+      </c>
+      <c r="P191">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" t="s">
+        <v>57</v>
+      </c>
+      <c r="S191" t="s">
+        <v>58</v>
+      </c>
+      <c r="T191" t="s">
+        <v>59</v>
+      </c>
+      <c r="U191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>36</v>
+      </c>
+      <c r="D192" t="s">
+        <v>54</v>
+      </c>
+      <c r="E192" t="s">
+        <v>55</v>
+      </c>
+      <c r="F192">
+        <v>1.54</v>
+      </c>
+      <c r="G192">
+        <v>1.98669230769231</v>
+      </c>
+      <c r="H192">
+        <v>7.24</v>
+      </c>
+      <c r="I192">
+        <v>5.4135</v>
+      </c>
+      <c r="L192">
+        <v>2.62</v>
+      </c>
+      <c r="M192">
+        <v>3.4489</v>
+      </c>
+      <c r="N192">
+        <v>4.9356</v>
+      </c>
+      <c r="O192">
+        <v>1805181.656</v>
+      </c>
+      <c r="P192">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>56</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+      <c r="S192" t="s">
+        <v>58</v>
+      </c>
+      <c r="T192" t="s">
+        <v>59</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" t="s">
+        <v>54</v>
+      </c>
+      <c r="E193" t="s">
+        <v>55</v>
+      </c>
+      <c r="F193">
+        <v>1.54</v>
+      </c>
+      <c r="G193">
+        <v>1.98669230769231</v>
+      </c>
+      <c r="H193">
+        <v>7.24</v>
+      </c>
+      <c r="I193">
+        <v>5.4135</v>
+      </c>
+      <c r="L193">
+        <v>2.62</v>
+      </c>
+      <c r="M193">
+        <v>3.4489</v>
+      </c>
+      <c r="N193">
+        <v>4.9356</v>
+      </c>
+      <c r="O193">
+        <v>1805181.656</v>
+      </c>
+      <c r="P193">
+        <v>5545497.329</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>56</v>
+      </c>
+      <c r="R193" t="s">
+        <v>57</v>
+      </c>
+      <c r="S193" t="s">
+        <v>58</v>
+      </c>
+      <c r="T193" t="s">
+        <v>59</v>
+      </c>
+      <c r="U193" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
